--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA498AE-ABAE-43F5-8EE0-8EBF4D3AD12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C477706-2A60-4BBB-8C77-44F33CC07836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -199,6 +199,40 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillSelectAction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放对象选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnit</t>
+  </si>
+  <si>
+    <t>false,false,false,100,360,1</t>
+  </si>
+  <si>
+    <t>ActionCallSelectUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoSelf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallParam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -306,6 +340,32 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -318,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -330,6 +390,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -607,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -620,10 +697,11 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="9" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -644,11 +722,13 @@
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1"/>
-      <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -665,8 +745,10 @@
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -677,9 +759,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="I2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="3"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -696,8 +782,10 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -718,11 +806,13 @@
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3"/>
-      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -739,8 +829,10 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -754,8 +846,8 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -772,8 +864,10 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -795,10 +889,14 @@
         <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -815,8 +913,10 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -832,16 +932,22 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -862,11 +968,15 @@
       <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -887,11 +997,19 @@
       <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C477706-2A60-4BBB-8C77-44F33CC07836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97132CF3-15FD-4B9D-AE23-8CF886A7B7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,6 +393,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,8 +407,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -722,10 +722,10 @@
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
@@ -759,10 +759,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K2" s="3"/>
@@ -806,10 +806,10 @@
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
@@ -932,7 +932,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>18</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97132CF3-15FD-4B9D-AE23-8CF886A7B7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4631DE-A459-4B5E-B520-A9F0C4870D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,10 +176,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Timeline_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Timeline_2</t>
   </si>
   <si>
@@ -233,6 +229,10 @@
   </si>
   <si>
     <t>$value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -717,13 +717,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="3" t="s">
@@ -760,10 +760,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2"/>
@@ -801,13 +801,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="4" t="s">
@@ -883,16 +883,16 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>22</v>
@@ -938,13 +938,13 @@
         <v>18</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -969,11 +969,11 @@
         <v>19</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -998,11 +998,11 @@
         <v>21</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4631DE-A459-4B5E-B520-A9F0C4870D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDD54C6-8EC3-4D72-A839-CDB2EE1E8641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Timeline_2</t>
+    <t>Timeline_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDD54C6-8EC3-4D72-A839-CDB2EE1E8641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC5B325-70A9-4894-A37F-D07BE51DA806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string#ref=TimelineCfgCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Timeline_2</t>
   </si>
   <si>
@@ -206,12 +202,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCallAutoUnit</t>
-  </si>
-  <si>
-    <t>false,false,false,100,360,1</t>
-  </si>
-  <si>
     <t>ActionCallSelectUnit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -233,6 +223,98 @@
   </si>
   <si>
     <t>Timeline_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitWhenUmbellate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;false;false;"";0,0,0;0,0,0;false;true;true;100;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitWhenRectangle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;false;false;"";0,0,0;0,0,0;false;true;10;6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Player1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn_action_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习技能时触发的Action事件id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBuff_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerPassive1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=TimelineCfgCategory?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=ActionCfg_ref_group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Player3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoverTankNormal1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_HoverTank1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineGunTower1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_MachineGunTower1</t>
+  </si>
+  <si>
+    <t>Timeline_RocketTower_1</t>
+  </si>
+  <si>
+    <t>Timeline_LaserTower_0</t>
+  </si>
+  <si>
+    <t>Timeline_EnergyPylon_2</t>
+  </si>
+  <si>
+    <t>RocketTower_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserTower_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyPylon_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -368,6 +450,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -398,13 +491,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
@@ -693,15 +786,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="10" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -717,19 +812,21 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1"/>
+      <c r="L1" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -746,9 +843,8 @@
       <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
-      <c r="AC1"/>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -760,13 +856,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2"/>
+      <c r="L2" s="3"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -783,9 +879,8 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
-      <c r="AC2"/>
-    </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -801,19 +896,21 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3"/>
+        <v>48</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -830,9 +927,8 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
-      <c r="AC3"/>
-    </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -848,7 +944,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4"/>
+      <c r="L4" s="4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -865,9 +961,8 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
-      <c r="AC4"/>
-    </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -883,21 +978,23 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L5"/>
+      <c r="L5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -914,9 +1011,8 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
-      <c r="AC5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -924,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D11" si="0">B6&amp;"_"&amp;C6</f>
         <v>Skill_1</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -932,22 +1028,23 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -955,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>Skill_2</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -969,14 +1066,15 @@
         <v>19</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -984,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="str">
-        <f>B8&amp;"_"&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>Skill_3</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -992,18 +1090,263 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="8">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Skill_Player1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Skill_Player2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Skill_PlayerPassive1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8">
+        <v>3</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12" si="1">B12&amp;"_"&amp;C12</f>
+        <v>Skill_MachineGunTower1</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13:D14" si="2">B13&amp;"_"&amp;C13</f>
+        <v>Skill_RocketTower_1</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>Skill_LaserTower_0</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="3">B15&amp;"_"&amp;C15</f>
+        <v>Skill_EnergyPylon_2</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16" si="4">B16&amp;"_"&amp;C16</f>
+        <v>Skill_HoverTankNormal1</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1012,6 +1355,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA65A293-0851-455F-B1F5-6DDFC37ED133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D969A-8891-48F9-8B30-B4C55588E3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
   <si>
     <t>##var</t>
   </si>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AddBuff_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerPassive1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -413,10 +409,48 @@
     <t>Timeline_EnemySolo1</t>
   </si>
   <si>
-    <t>true;1;false;false;"";0,0,0;0,0,0;false;true;true;100;360</t>
-  </si>
-  <si>
-    <t>true;1;false;false;"";0,0,0;0,0,0;false;true;10;6</t>
+    <t>ActionCallAutoUnitWhenRectangle</t>
+  </si>
+  <si>
+    <t>true;1;false;false;"";0,0,0;0,0,0;false;true;true;100;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;1;false;false;"";0,0,0;0,0,0;false;true;10;6;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;-1;false;false;"";0,0,0;0,0,0;true;true;100;10;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAttackGotGold1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击偷钱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAutoGetGold1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动加钱</t>
+  </si>
+  <si>
+    <t>BuffAdd_AutoGetGold1</t>
+  </si>
+  <si>
+    <t>BuffAdd_AttackGetGold1</t>
+  </si>
+  <si>
+    <t>PassiveSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -882,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -983,10 +1017,10 @@
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1012,13 +1046,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
@@ -1030,19 +1064,19 @@
         <v>25</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1201,7 +1235,7 @@
         <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -1210,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1234,7 +1268,7 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1242,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12" si="1">B12&amp;"_"&amp;C12</f>
@@ -1263,7 +1297,7 @@
         <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -1272,7 +1306,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ref="D13:D14" si="2">B13&amp;"_"&amp;C13</f>
@@ -1293,7 +1327,7 @@
         <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2"/>
     </row>
@@ -1302,7 +1336,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1323,7 +1357,7 @@
         <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -1332,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ref="D15" si="3">B15&amp;"_"&amp;C15</f>
@@ -1353,7 +1387,7 @@
         <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -1362,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" ref="D16:D21" si="4">B16&amp;"_"&amp;C16</f>
@@ -1383,26 +1417,26 @@
         <v>80</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Skill_PlayerSolo1</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G17" s="1">
         <v>0.1</v>
@@ -1417,25 +1451,25 @@
         <v>80</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Skill_PlayerAoe1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1">
         <v>0.5</v>
@@ -1450,61 +1484,61 @@
         <v>80</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Skill_PlayerLine1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Skill_PlayerCircle1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
@@ -1516,25 +1550,25 @@
         <v>80</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Skill_EnemySolo1</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G21" s="1">
         <v>0.5</v>
@@ -1549,17 +1583,86 @@
         <v>80</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" ref="D23:D24" si="5">B23&amp;"_"&amp;C23</f>
+        <v>Skill_PlayerAttackGotGold1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Skill_PlayerAutoGetGold1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D969A-8891-48F9-8B30-B4C55588E3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A1797-61DD-4EA3-9B7C-A29EE929B49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="146">
   <si>
     <t>##var</t>
   </si>
@@ -446,10 +435,224 @@
     <t>BuffAdd_AutoGetGold1</t>
   </si>
   <si>
+    <t>PassiveSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能施法距离</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>BuffAdd_AttackGetGold1</t>
-  </si>
-  <si>
-    <t>PassiveSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_HitBack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerLine2</t>
+  </si>
+  <si>
+    <t>PlayerLine3</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerLine2</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerLine3</t>
+  </si>
+  <si>
+    <t>PlayerSolo2</t>
+  </si>
+  <si>
+    <t>PlayerSolo3</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSolo2</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSolo3</t>
+  </si>
+  <si>
+    <t>PlayerAoe2</t>
+  </si>
+  <si>
+    <t>PlayerAoe3</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerAoe2</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerAoe3</t>
+  </si>
+  <si>
+    <t>龙击炮1</t>
+  </si>
+  <si>
+    <t>龙击炮2</t>
+  </si>
+  <si>
+    <t>龙击炮3</t>
+  </si>
+  <si>
+    <t>雷电塔1</t>
+  </si>
+  <si>
+    <t>雷电塔2</t>
+  </si>
+  <si>
+    <t>雷电塔3</t>
+  </si>
+  <si>
+    <t>冰魔塔1</t>
+  </si>
+  <si>
+    <t>冰魔塔2</t>
+  </si>
+  <si>
+    <t>冰魔塔3</t>
+  </si>
+  <si>
+    <t>加速塔1</t>
+  </si>
+  <si>
+    <t>加速塔2</t>
+  </si>
+  <si>
+    <t>加速塔3</t>
+  </si>
+  <si>
+    <t>TowerDragon1</t>
+  </si>
+  <si>
+    <t>TowerDragon2</t>
+  </si>
+  <si>
+    <t>TowerDragon3</t>
+  </si>
+  <si>
+    <t>TowerElec1</t>
+  </si>
+  <si>
+    <t>TowerElec2</t>
+  </si>
+  <si>
+    <t>TowerElec3</t>
+  </si>
+  <si>
+    <t>TowerIce1</t>
+  </si>
+  <si>
+    <t>TowerIce2</t>
+  </si>
+  <si>
+    <t>TowerIce3</t>
+  </si>
+  <si>
+    <t>TowerTime1</t>
+  </si>
+  <si>
+    <t>TowerTime2</t>
+  </si>
+  <si>
+    <t>TowerTime3</t>
+  </si>
+  <si>
+    <t>单体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体减速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方加速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_TowerDragon1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerDragon2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerDragon3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerElec1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerElec2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerElec3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerIce1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerIce2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerIce3</t>
+  </si>
+  <si>
+    <t>ActionCallAutoSelf</t>
+  </si>
+  <si>
+    <r>
+      <t>BuffAdd_AddCDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuffAdd_AddCDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuffAdd_AddCDDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +660,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +700,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -595,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -626,6 +838,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -916,30 +1131,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="54.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -955,23 +1172,26 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -982,16 +1202,17 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1010,20 +1231,23 @@
         <v>26</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1040,8 +1264,9 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1061,25 +1286,28 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1095,23 +1323,26 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1127,23 +1358,26 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
         <v>8</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1" t="b">
+      <c r="K7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1159,23 +1393,26 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="1" t="b">
+      <c r="K8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1191,23 +1428,26 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1223,23 +1463,26 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1255,23 +1498,26 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="1" t="b">
+      <c r="K11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1285,23 +1531,26 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1315,23 +1564,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1345,23 +1597,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1375,23 +1630,26 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1399,29 +1657,32 @@
         <v>44</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:D21" si="4">B16&amp;"_"&amp;C16</f>
+        <f t="shared" ref="D16:D27" si="4">B16&amp;"_"&amp;C16</f>
         <v>Skill_HoverTankNormal1</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1439,235 +1700,904 @@
         <v>70</v>
       </c>
       <c r="G17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ref="D18" si="5">B18&amp;"_"&amp;C18</f>
+        <v>Skill_PlayerSolo2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ref="D19" si="6">B19&amp;"_"&amp;C19</f>
+        <v>Skill_PlayerSolo3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="1" t="str">
+      <c r="D20" s="11" t="str">
         <f t="shared" si="4"/>
         <v>Skill_PlayerAoe1</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G20" s="11">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>Skill_PlayerAoe2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="11">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
         <v>0.5</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="I21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="L21" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="11" t="str">
+        <f t="shared" ref="D22" si="7">B22&amp;"_"&amp;C22</f>
+        <v>Skill_PlayerAoe3</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="11">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="1" t="str">
+      <c r="D23" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Skill_PlayerLine1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G23" s="1">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.2</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" ref="D24" si="8">B24&amp;"_"&amp;C24</f>
+        <v>Skill_PlayerLine2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="1">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" ref="D25" si="9">B25&amp;"_"&amp;C25</f>
+        <v>Skill_PlayerLine3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="str">
+      <c r="D26" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Skill_PlayerCircle1</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G26" s="1">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1">
         <v>0.2</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="1" t="str">
+      <c r="D27" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Skill_EnemySolo1</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.5</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="I27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="M27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" ref="D23:D24" si="5">B23&amp;"_"&amp;C23</f>
+      <c r="D29" s="1" t="str">
+        <f t="shared" ref="D29:D42" si="10">B29&amp;"_"&amp;C29</f>
         <v>Skill_PlayerAttackGotGold1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
         <v>8</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="1" t="b">
+      <c r="K29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="M29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>Skill_PlayerAutoGetGold1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
         <v>8</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="1" t="b">
+      <c r="K30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2" t="s">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerDragon1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerDragon2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerDragon3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerElec1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerElec2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerElec3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerIce1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerIce2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerIce3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerTime1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerTime2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Skill_TowerTime3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A1797-61DD-4EA3-9B7C-A29EE929B49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84537123-F94B-4CC1-8AEA-6B6D4F34F53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1134,8 +1134,8 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2183,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>16</v>
@@ -2219,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>16</v>
@@ -2255,7 +2255,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>16</v>
@@ -2291,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>16</v>
@@ -2363,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>16</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84537123-F94B-4CC1-8AEA-6B6D4F34F53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C2C5AE-07B4-4F35-99C8-E85D1503CB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="153">
   <si>
     <t>##var</t>
   </si>
@@ -617,7 +617,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>2</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -634,13 +634,54 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>BuffAdd_AddCDDown</t>
+      <t>SeedHeal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗同伴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_AddCDDown1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_SeedHeal1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCircle3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Timeline_PlayerCircle</t>
     </r>
     <r>
       <rPr>
@@ -1131,11 +1172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1657,7 +1698,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:D27" si="4">B16&amp;"_"&amp;C16</f>
+        <f t="shared" ref="D16:D28" si="4">B16&amp;"_"&amp;C16</f>
         <v>Skill_HoverTankNormal1</v>
       </c>
       <c r="E16" s="2"/>
@@ -2047,100 +2088,100 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" ref="D27" si="10">B27&amp;"_"&amp;C27</f>
+        <v>Skill_PlayerCircle3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="1" t="str">
+      <c r="D28" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Skill_EnemySolo1</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="1">
-        <v>10</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
         <v>0.5</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" ref="D29:D42" si="10">B29&amp;"_"&amp;C29</f>
-        <v>Skill_PlayerAttackGotGold1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="1">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1">
-        <v>8</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_PlayerAutoGetGold1</v>
+        <f t="shared" ref="D30:D43" si="11">B30&amp;"_"&amp;C30</f>
+        <v>Skill_PlayerAttackGotGold1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1">
         <v>10</v>
@@ -2148,8 +2189,8 @@
       <c r="H30" s="1">
         <v>8</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>19</v>
+      <c r="I30" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -2157,45 +2198,45 @@
       <c r="K30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>118</v>
+      <c r="C31" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerDragon1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>106</v>
+        <f t="shared" si="11"/>
+        <v>Skill_PlayerAutoGetGold1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1">
         <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>133</v>
+        <v>29</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
@@ -2203,14 +2244,14 @@
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerDragon2</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerDragon1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>130</v>
@@ -2219,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>16</v>
@@ -2231,7 +2272,7 @@
         <v>80</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -2239,14 +2280,14 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerDragon3</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerDragon2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>130</v>
@@ -2255,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>16</v>
@@ -2267,7 +2308,7 @@
         <v>80</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
@@ -2275,14 +2316,14 @@
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerElec1</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerDragon3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>130</v>
@@ -2291,7 +2332,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>16</v>
@@ -2303,7 +2344,7 @@
         <v>80</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
@@ -2311,14 +2352,14 @@
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerElec2</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerElec1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>130</v>
@@ -2327,7 +2368,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>16</v>
@@ -2339,7 +2380,7 @@
         <v>80</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -2347,14 +2388,14 @@
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerElec3</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerElec2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>130</v>
@@ -2363,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>16</v>
@@ -2375,7 +2416,7 @@
         <v>80</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
@@ -2383,23 +2424,23 @@
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerIce1</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerElec3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G37" s="1">
         <v>10</v>
       </c>
       <c r="H37" s="1">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>16</v>
@@ -2411,7 +2452,7 @@
         <v>80</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
@@ -2419,14 +2460,14 @@
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerIce2</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerIce1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>131</v>
@@ -2435,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>16</v>
@@ -2447,7 +2488,7 @@
         <v>80</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
@@ -2455,14 +2496,14 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerIce3</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerIce2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>131</v>
@@ -2471,7 +2512,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>16</v>
@@ -2483,7 +2524,7 @@
         <v>80</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
@@ -2491,35 +2532,35 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerTime1</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerIce3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1">
         <v>0.5</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
@@ -2527,14 +2568,14 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerTime2</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerTime1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>132</v>
@@ -2555,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
@@ -2563,14 +2604,14 @@
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Skill_TowerTime3</v>
+        <f t="shared" si="11"/>
+        <v>Skill_TowerTime2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>132</v>
@@ -2591,7 +2632,79 @@
         <v>0</v>
       </c>
       <c r="M42" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>Skill_TowerTime3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>145</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" ref="D44" si="12">B44&amp;"_"&amp;C44</f>
+        <v>Skill_SeedHeal1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C2C5AE-07B4-4F35-99C8-E85D1503CB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F0E7D-3240-4D9E-BB0E-15A2B697B122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="310">
   <si>
     <t>##var</t>
   </si>
@@ -696,12 +707,486 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>奥术天球1</t>
+  </si>
+  <si>
+    <t>奥术天球2</t>
+  </si>
+  <si>
+    <t>奥术天球3</t>
+  </si>
+  <si>
+    <t>炼金塔1</t>
+  </si>
+  <si>
+    <t>炼金塔2</t>
+  </si>
+  <si>
+    <t>炼金塔3</t>
+  </si>
+  <si>
+    <t>毒蝎塔1</t>
+  </si>
+  <si>
+    <t>毒蝎塔2</t>
+  </si>
+  <si>
+    <t>毒蝎塔3</t>
+  </si>
+  <si>
+    <t>诅咒塔1</t>
+  </si>
+  <si>
+    <t>诅咒塔2</t>
+  </si>
+  <si>
+    <t>诅咒塔3</t>
+  </si>
+  <si>
+    <t>巫毒塔1</t>
+  </si>
+  <si>
+    <t>巫毒塔2</t>
+  </si>
+  <si>
+    <t>巫毒塔3</t>
+  </si>
+  <si>
+    <t>冰枪塔1</t>
+  </si>
+  <si>
+    <t>冰枪塔2</t>
+  </si>
+  <si>
+    <t>冰枪塔3</t>
+  </si>
+  <si>
+    <t>水图腾1</t>
+  </si>
+  <si>
+    <t>水图腾2</t>
+  </si>
+  <si>
+    <t>水图腾3</t>
+  </si>
+  <si>
+    <t>电磁塔1</t>
+  </si>
+  <si>
+    <t>电磁塔2</t>
+  </si>
+  <si>
+    <t>电磁塔3</t>
+  </si>
+  <si>
+    <t>火图腾1</t>
+  </si>
+  <si>
+    <t>火图腾2</t>
+  </si>
+  <si>
+    <t>火图腾3</t>
+  </si>
+  <si>
+    <t>奥术精灵1</t>
+  </si>
+  <si>
+    <t>奥术精灵2</t>
+  </si>
+  <si>
+    <t>奥术精灵3</t>
+  </si>
+  <si>
+    <t>连击斧1</t>
+  </si>
+  <si>
+    <t>连击斧2</t>
+  </si>
+  <si>
+    <t>连击斧3</t>
+  </si>
+  <si>
+    <t>灾厄塔1</t>
+  </si>
+  <si>
+    <t>灾厄塔2</t>
+  </si>
+  <si>
+    <t>灾厄塔3</t>
+  </si>
+  <si>
+    <t>窃贼哥布林1</t>
+  </si>
+  <si>
+    <t>窃贼哥布林2</t>
+  </si>
+  <si>
+    <t>窃贼哥布林3</t>
+  </si>
+  <si>
+    <t>毒刺塔1</t>
+  </si>
+  <si>
+    <t>毒刺塔2</t>
+  </si>
+  <si>
+    <t>毒刺塔3</t>
+  </si>
+  <si>
+    <t>火箭塔1</t>
+  </si>
+  <si>
+    <t>火箭塔2</t>
+  </si>
+  <si>
+    <t>火箭塔3</t>
+  </si>
+  <si>
+    <t>火球塔1</t>
+  </si>
+  <si>
+    <t>火球塔2</t>
+  </si>
+  <si>
+    <t>火球塔3</t>
+  </si>
+  <si>
+    <t>群体攻击</t>
+  </si>
+  <si>
+    <t>自身buff</t>
+  </si>
+  <si>
+    <t>单体攻击</t>
+  </si>
+  <si>
+    <t>单体攻击+敌军buff</t>
+  </si>
+  <si>
+    <t>群体攻击+敌军buff</t>
+  </si>
+  <si>
+    <t>自身buff+友军buff</t>
+  </si>
+  <si>
+    <t>自身buff+敌军buff</t>
+  </si>
+  <si>
+    <t>单体攻击+偷钱</t>
+  </si>
+  <si>
+    <t>TowerMagicBall1</t>
+  </si>
+  <si>
+    <t>TowerMagicBall2</t>
+  </si>
+  <si>
+    <t>TowerMagicBall3</t>
+  </si>
+  <si>
+    <t>TowerAlchemy1</t>
+  </si>
+  <si>
+    <t>TowerAlchemy2</t>
+  </si>
+  <si>
+    <t>TowerAlchemy3</t>
+  </si>
+  <si>
+    <t>TowerScorpio1</t>
+  </si>
+  <si>
+    <t>TowerScorpio2</t>
+  </si>
+  <si>
+    <t>TowerScorpio3</t>
+  </si>
+  <si>
+    <t>TowerCurse1</t>
+  </si>
+  <si>
+    <t>TowerCurse2</t>
+  </si>
+  <si>
+    <t>TowerCurse3</t>
+  </si>
+  <si>
+    <t>Towerwitch1</t>
+  </si>
+  <si>
+    <t>Towerwitch2</t>
+  </si>
+  <si>
+    <t>Towerwitch3</t>
+  </si>
+  <si>
+    <t>TowerIceArrow1</t>
+  </si>
+  <si>
+    <t>TowerIceArrow2</t>
+  </si>
+  <si>
+    <t>TowerIceArrow3</t>
+  </si>
+  <si>
+    <t>TowerWater1</t>
+  </si>
+  <si>
+    <t>TowerWater2</t>
+  </si>
+  <si>
+    <t>TowerWater3</t>
+  </si>
+  <si>
+    <t>TowerElectromagnetic1</t>
+  </si>
+  <si>
+    <t>TowerElectromagnetic2</t>
+  </si>
+  <si>
+    <t>TowerElectromagnetic3</t>
+  </si>
+  <si>
+    <t>TowerFire1</t>
+  </si>
+  <si>
+    <t>TowerFire2</t>
+  </si>
+  <si>
+    <t>TowerFire3</t>
+  </si>
+  <si>
+    <t>TowerAoShu1</t>
+  </si>
+  <si>
+    <t>TowerAoShu2</t>
+  </si>
+  <si>
+    <t>TowerAoShu3</t>
+  </si>
+  <si>
+    <t>TowerLianJi1</t>
+  </si>
+  <si>
+    <t>TowerLianJi2</t>
+  </si>
+  <si>
+    <t>TowerLianJi3</t>
+  </si>
+  <si>
+    <t>TowerZaiE1</t>
+  </si>
+  <si>
+    <t>TowerZaiE2</t>
+  </si>
+  <si>
+    <t>TowerZaiE3</t>
+  </si>
+  <si>
+    <t>TowerGoblin2</t>
+  </si>
+  <si>
+    <t>TowerGoblin3</t>
+  </si>
+  <si>
+    <t>TowerDuCi1</t>
+  </si>
+  <si>
+    <t>TowerDuCi2</t>
+  </si>
+  <si>
+    <t>TowerDuCi3</t>
+  </si>
+  <si>
+    <t>TowerRocket1</t>
+  </si>
+  <si>
+    <t>TowerRocket2</t>
+  </si>
+  <si>
+    <t>TowerRocket3</t>
+  </si>
+  <si>
+    <t>TowerFireBall1</t>
+  </si>
+  <si>
+    <t>TowerFireBall2</t>
+  </si>
+  <si>
+    <t>TowerFireBall3</t>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitWhenUmbellate</t>
+  </si>
+  <si>
+    <t>Timeline_TowerMagicBall1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerMagicBall2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerMagicBall3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerScorpio1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerScorpio2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerScorpio3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerCurse1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerCurse2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerCurse3</t>
+  </si>
+  <si>
+    <t>BuffAdd_Towerwitch1</t>
+  </si>
+  <si>
+    <t>BuffAdd_Towerwitch2</t>
+  </si>
+  <si>
+    <t>BuffAdd_Towerwitch3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerIceArrow1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerIceArrow2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerIceArrow3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerWater1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerWater2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerWater3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerElectromagnetic1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerElectromagnetic2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerElectromagnetic3</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerFire1</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerFire2</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerFire3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerAoShu1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerAoShu2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerAoShu3</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerLianJi1</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerLianJi2</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerLianJi3</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerZaiE1</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerZaiE2</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerZaiE3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerGoblin1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerGoblin2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerGoblin3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerDuCi1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerDuCi2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerDuCi3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerRocket1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerRocket2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerRocket3</t>
+  </si>
+  <si>
+    <t>Timeline_TowerFireBall1</t>
+  </si>
+  <si>
+    <t>Timeline_TowerFireBall2</t>
+  </si>
+  <si>
+    <t>Timeline_TowerFireBall3</t>
+  </si>
+  <si>
+    <t>PlayerCircle2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_PlayerCircle2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerGoblin1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;1;false;false;"";0,0,0;0,0,0;false;true;true;100;360;false</t>
+  </si>
+  <si>
+    <t>true;-1;false;false;"";0,0,0;0,0,0;true;true;100;10;false</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerAlchemy1;GlobalBuffAdd_TowerAlchemy1</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerAlchemy2;GlobalBuffAdd_TowerAlchemy2</t>
+  </si>
+  <si>
+    <t>BuffAdd_TowerAlchemy3;GlobalBuffAdd_TowerAlchemy3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +1241,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -848,7 +1348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -883,6 +1383,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,32 +1674,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="54.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="47.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.77734375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1221,10 +1723,10 @@
       <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1232,7 +1734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1755,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1277,10 +1779,10 @@
       <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="7" t="s">
         <v>41</v>
       </c>
@@ -1288,7 +1790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1809,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1885,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1418,7 +1920,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1453,7 +1955,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1990,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1523,7 +2025,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +2060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +2093,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1624,7 +2126,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +2159,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +2192,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +2200,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:D28" si="4">B16&amp;"_"&amp;C16</f>
+        <f t="shared" ref="D16:D17" si="4">B16&amp;"_"&amp;C16</f>
         <v>Skill_HoverTankNormal1</v>
       </c>
       <c r="E16" s="2"/>
@@ -1723,16 +2225,16 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Skill_PlayerSolo1</v>
+        <v>Skill_EnemySolo1</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>69</v>
@@ -1756,511 +2258,484 @@
         <v>80</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>B19&amp;"_"&amp;C19</f>
+        <v>Skill_SeedHeal1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" ref="D20:D46" si="5">B20&amp;"_"&amp;C20</f>
+        <v>Skill_PlayerAttackGotGold1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Skill_PlayerAutoGetGold1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>B23&amp;"_"&amp;C23</f>
+        <v>Skill_PlayerSolo1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" ref="D18" si="5">B18&amp;"_"&amp;C18</f>
+      <c r="D24" s="1" t="str">
+        <f t="shared" ref="D24" si="6">B24&amp;"_"&amp;C24</f>
         <v>Skill_PlayerSolo2</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="1">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="G24" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="K24" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" ref="D19" si="6">B19&amp;"_"&amp;C19</f>
+      <c r="D25" s="1" t="str">
+        <f t="shared" ref="D25" si="7">B25&amp;"_"&amp;C25</f>
         <v>Skill_PlayerSolo3</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="1">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="G25" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="K25" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11" t="s">
+    <row r="26" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="11" t="str">
-        <f t="shared" si="4"/>
+      <c r="D26" s="11" t="str">
+        <f>B26&amp;"_"&amp;C26</f>
         <v>Skill_PlayerAoe1</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="11">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="G26" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="11" t="s">
+      <c r="K26" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L26" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11" t="s">
+    <row r="27" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="11" t="str">
-        <f t="shared" si="4"/>
+      <c r="D27" s="11" t="str">
+        <f>B27&amp;"_"&amp;C27</f>
         <v>Skill_PlayerAoe2</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="11">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="G27" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.5</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="11" t="s">
+      <c r="I27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="11" t="s">
+      <c r="K27" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L27" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="11" t="s">
+    <row r="28" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="11" t="str">
-        <f t="shared" ref="D22" si="7">B22&amp;"_"&amp;C22</f>
+      <c r="D28" s="11" t="str">
+        <f t="shared" ref="D28" si="8">B28&amp;"_"&amp;C28</f>
         <v>Skill_PlayerAoe3</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="11">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Skill_PlayerLine1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="1">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" ref="D24" si="8">B24&amp;"_"&amp;C24</f>
-        <v>Skill_PlayerLine2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="1">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" ref="D25" si="9">B25&amp;"_"&amp;C25</f>
-        <v>Skill_PlayerLine3</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="1">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Skill_PlayerCircle1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="1">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" ref="D27" si="10">B27&amp;"_"&amp;C27</f>
-        <v>Skill_PlayerCircle3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="1">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Skill_EnemySolo1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="1">
-        <v>10</v>
+      <c r="G28" s="11">
+        <v>7.5</v>
       </c>
       <c r="H28" s="1">
         <v>0.5</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="I28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>34</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>B29&amp;"_"&amp;C29</f>
+        <v>Skill_PlayerLine1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="1">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" ref="D30:D43" si="11">B30&amp;"_"&amp;C30</f>
-        <v>Skill_PlayerAttackGotGold1</v>
+        <f t="shared" ref="D30" si="9">B30&amp;"_"&amp;C30</f>
+        <v>Skill_PlayerLine2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H30" s="1">
-        <v>8</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_PlayerAutoGetGold1</v>
+        <f t="shared" ref="D31" si="10">B31&amp;"_"&amp;C31</f>
+        <v>Skill_PlayerLine3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G31" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H31" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>118</v>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerDragon1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>106</v>
+        <f>B32&amp;"_"&amp;C32</f>
+        <v>Skill_PlayerCircle1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="G32" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>16</v>
@@ -2269,34 +2744,34 @@
         <v>34</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>119</v>
+      <c r="C33" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerDragon2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>107</v>
+        <f t="shared" ref="D33" si="11">B33&amp;"_"&amp;C33</f>
+        <v>Skill_PlayerCircle2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>16</v>
@@ -2305,34 +2780,34 @@
         <v>34</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>120</v>
+      <c r="C34" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerDragon3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>108</v>
+        <f t="shared" ref="D34" si="12">B34&amp;"_"&amp;C34</f>
+        <v>Skill_PlayerCircle3</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="G34" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>16</v>
@@ -2341,34 +2816,34 @@
         <v>34</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerElec1</v>
+        <f t="shared" si="5"/>
+        <v>Skill_TowerDragon1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>130</v>
       </c>
       <c r="G35" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H35" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>16</v>
@@ -2377,34 +2852,34 @@
         <v>34</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerElec2</v>
+        <f t="shared" si="5"/>
+        <v>Skill_TowerDragon2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>130</v>
       </c>
       <c r="G36" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H36" s="1">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>16</v>
@@ -2413,34 +2888,34 @@
         <v>34</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerElec3</v>
+        <f t="shared" si="5"/>
+        <v>Skill_TowerDragon3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>130</v>
       </c>
       <c r="G37" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H37" s="1">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>16</v>
@@ -2449,34 +2924,34 @@
         <v>34</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerIce1</v>
+        <f t="shared" si="5"/>
+        <v>Skill_TowerElec1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>16</v>
@@ -2485,34 +2960,34 @@
         <v>34</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerIce2</v>
+        <f t="shared" si="5"/>
+        <v>Skill_TowerElec2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>16</v>
@@ -2521,34 +2996,34 @@
         <v>34</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerIce3</v>
+        <f t="shared" si="5"/>
+        <v>Skill_TowerElec3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H40" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>16</v>
@@ -2557,142 +3032,142 @@
         <v>34</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="L40" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Skill_TowerIce1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Skill_TowerIce2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Skill_TowerIce3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>Skill_TowerTime1</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G41" s="1">
-        <v>5</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerTime2</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="1">
-        <v>5</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Skill_TowerTime3</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" s="1">
-        <v>5</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" ref="D44" si="12">B44&amp;"_"&amp;C44</f>
-        <v>Skill_SeedHeal1</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G44" s="1">
         <v>5</v>
       </c>
       <c r="H44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>19</v>
@@ -2704,7 +3179,2635 @@
         <v>0</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Skill_TowerTime2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Skill_TowerTime3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" ref="D47:D94" si="13">B47&amp;"_"&amp;C47</f>
+        <v>Skill_TowerMagicBall1</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerMagicBall2</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G48" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerMagicBall3</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerAlchemy1</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50" s="13">
+        <v>5</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerAlchemy2</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="13">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerAlchemy3</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="13">
+        <v>5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerScorpio1</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerScorpio2</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerScorpio3</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerCurse1</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerCurse2</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerCurse3</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_Towerwitch1</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G59" s="13">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_Towerwitch2</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" s="13">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_Towerwitch3</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" s="13">
+        <v>5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerIceArrow1</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerIceArrow2</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G63" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerIceArrow3</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerWater1</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G65" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerWater2</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H66" s="1">
+        <v>3</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerWater3</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerElectromagnetic1</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerElectromagnetic2</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G69" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerElectromagnetic3</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G70" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerFire1</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G71" s="13">
+        <v>5</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerFire2</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G72" s="13">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerFire3</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G73" s="13">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerAoShu1</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G74" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerAoShu2</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G75" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerAoShu3</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerLianJi1</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G77" s="13">
+        <v>5</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerLianJi2</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G78" s="13">
+        <v>5</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerLianJi3</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G79" s="13">
+        <v>5</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerZaiE1</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G80" s="13">
+        <v>5</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerZaiE2</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G81" s="13">
+        <v>5</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerZaiE3</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G82" s="13">
+        <v>5</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerGoblin1</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G83" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerGoblin2</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G84" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerGoblin3</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G85" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerDuCi1</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerDuCi2</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H87" s="1">
+        <v>3</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerDuCi3</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G88" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H88" s="1">
+        <v>3</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerRocket1</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G89" s="13">
+        <v>15</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerRocket2</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G90" s="13">
+        <v>15</v>
+      </c>
+      <c r="H90" s="1">
+        <v>3</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerRocket3</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G91" s="13">
+        <v>15</v>
+      </c>
+      <c r="H91" s="1">
+        <v>3</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerFireBall1</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G92" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerFireBall2</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G93" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Skill_TowerFireBall3</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G94" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f>B96&amp;"_Test"&amp;C96</f>
+        <v>Skill_TestPlayerSolo1</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G96" s="1">
+        <v>10</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f t="shared" ref="D97:D118" si="14">B97&amp;"_Test"&amp;C97</f>
+        <v>Skill_TestPlayerSolo2</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G97" s="1">
+        <v>10</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestPlayerSolo3</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G98" s="1">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestPlayerAoe1</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G99" s="11">
+        <v>10</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestPlayerAoe2</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100" s="11">
+        <v>10</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestPlayerAoe3</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="11">
+        <v>10</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestPlayerLine1</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G102" s="1">
+        <v>15</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestPlayerLine2</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G103" s="1">
+        <v>15</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestPlayerLine3</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G104" s="1">
+        <v>15</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestPlayerCircle1</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G105" s="1">
+        <v>15</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestPlayerCircle3</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="1">
+        <v>15</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerDragon1</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G107" s="1">
+        <v>10</v>
+      </c>
+      <c r="H107" s="1">
+        <v>4</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerDragon2</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G108" s="1">
+        <v>10</v>
+      </c>
+      <c r="H108" s="1">
+        <v>2</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerDragon3</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" s="1">
+        <v>10</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerElec1</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G110" s="1">
+        <v>10</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerElec2</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="1">
+        <v>10</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerElec3</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G112" s="1">
+        <v>10</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerIce1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" s="1">
+        <v>10</v>
+      </c>
+      <c r="H113" s="1">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerIce2</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G114" s="1">
+        <v>10</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerIce3</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G115" s="1">
+        <v>10</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerTime1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G116" s="1">
+        <v>5</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerTime2</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Skill_TestTowerTime3</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G118" s="1">
+        <v>5</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F2311-2AA1-4966-A370-4789B22D4735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47488F64-C893-4F22-82E2-536EA9E6287D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="474">
   <si>
     <t>##var</t>
   </si>
@@ -82,9 +93,6 @@
     <t>cd</t>
   </si>
   <si>
-    <t>skillSlotType</t>
-  </si>
-  <si>
     <t>skillSelectAction</t>
   </si>
   <si>
@@ -98,9 +106,6 @@
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>SkillSlotType</t>
   </si>
   <si>
     <t>string#ref=TimelineCfgCategory?</t>
@@ -156,25 +161,16 @@
     <t>技能1</t>
   </si>
   <si>
-    <t>NormalAttack</t>
-  </si>
-  <si>
     <t>Timeline_3</t>
   </si>
   <si>
     <t>技能2</t>
   </si>
   <si>
-    <t>InitiativeSkill</t>
-  </si>
-  <si>
     <t>Timeline_2</t>
   </si>
   <si>
     <t>技能3</t>
-  </si>
-  <si>
-    <t>PassiveSkill</t>
   </si>
   <si>
     <t>Timeline_Player1</t>
@@ -1123,11 +1119,6 @@
       </rPr>
       <t>_1_Dan</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型
-NormalAttack普通攻击,InitiativeSkill主动技能,PassiveSkill被动技能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1935,27 +1926,7 @@
     <cellStyle name="好 3" xfId="5" xr:uid="{D60E7979-F8FA-4303-AA39-FFECF154940E}"/>
     <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2337,30 +2308,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P167"/>
+  <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J72" sqref="J72:J74"/>
+      <pane ySplit="5" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="20" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="20" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="20" customWidth="1"/>
     <col min="3" max="3" width="9" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="20" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="20" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="20" customWidth="1"/>
-    <col min="9" max="9" width="26.875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="26.75" style="20" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="20"/>
+    <col min="4" max="4" width="19.77734375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" style="20" customWidth="1"/>
+    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2379,22 +2349,19 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>313</v>
-      </c>
+      <c r="I1" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2403,109 +2370,101 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" s="13" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="I5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>24</v>
+      <c r="J5" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E6" s="18">
         <v>15</v>
@@ -2514,30 +2473,27 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>26</v>
+        <v>446</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E7" s="18">
         <v>15</v>
@@ -2546,30 +2502,27 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>26</v>
+        <v>447</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="L7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" s="18" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E8" s="18">
         <v>15</v>
@@ -2578,30 +2531,27 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L8" s="6">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E9" s="18">
         <v>15</v>
@@ -2610,30 +2560,27 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>26</v>
+        <v>449</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E10" s="18">
         <v>15</v>
@@ -2642,30 +2589,27 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>26</v>
+        <v>450</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="L10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
-        <v>221</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E11" s="18">
         <v>15</v>
@@ -2674,30 +2618,27 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="6">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E12" s="18">
         <v>15</v>
@@ -2706,30 +2647,27 @@
         <v>0.3</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>26</v>
+        <v>452</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E13" s="18">
         <v>15</v>
@@ -2738,30 +2676,27 @@
         <v>0.3</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>26</v>
+        <v>453</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="L13" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
-        <v>228</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E14" s="18">
         <v>15</v>
@@ -2770,30 +2705,27 @@
         <v>0.3</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>26</v>
+        <v>454</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="6">
+        <v>61</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E15" s="18">
         <v>15</v>
@@ -2802,30 +2734,27 @@
         <v>0.3</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>26</v>
+        <v>455</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E16" s="18">
         <v>15</v>
@@ -2834,30 +2763,27 @@
         <v>0.3</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>26</v>
+        <v>456</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
-        <v>235</v>
-      </c>
       <c r="D17" s="18" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E17" s="18">
         <v>15</v>
@@ -2866,30 +2792,27 @@
         <v>0.3</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>26</v>
+        <v>457</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L17" s="6">
+        <v>232</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E18" s="18">
         <v>15</v>
@@ -2898,30 +2821,27 @@
         <v>3</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>26</v>
+        <v>458</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E19" s="18">
         <v>15</v>
@@ -2930,30 +2850,27 @@
         <v>3</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>26</v>
+        <v>459</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="L19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="18" t="s">
-        <v>243</v>
-      </c>
       <c r="D20" s="18" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E20" s="18">
         <v>15</v>
@@ -2962,30 +2879,27 @@
         <v>3</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>26</v>
+        <v>460</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L20" s="6">
+        <v>74</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K20" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E21" s="18">
         <v>7.5</v>
@@ -2994,30 +2908,27 @@
         <v>1</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>26</v>
+        <v>461</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E22" s="18">
         <v>7.5</v>
@@ -3026,30 +2937,27 @@
         <v>1</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>26</v>
+        <v>462</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="L22" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
-        <v>250</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E23" s="18">
         <v>7.5</v>
@@ -3058,30 +2966,27 @@
         <v>1</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>26</v>
+        <v>463</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L23" s="6">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K23" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E24" s="18">
         <v>7.5</v>
@@ -3090,30 +2995,27 @@
         <v>1</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>26</v>
+        <v>464</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E25" s="18">
         <v>7.5</v>
@@ -3122,30 +3024,27 @@
         <v>1</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>26</v>
+        <v>465</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L25" s="6">
+        <v>85</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K25" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E26" s="18">
         <v>7.5</v>
@@ -3154,30 +3053,27 @@
         <v>1</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>26</v>
+        <v>466</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L26" s="6">
+        <v>87</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K26" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E27" s="18">
         <v>7.5</v>
@@ -3186,27 +3082,24 @@
         <v>1</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E28" s="18">
         <v>8.75</v>
@@ -3215,27 +3108,24 @@
         <v>1</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="K28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="L28" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="18" t="s">
-        <v>263</v>
-      </c>
       <c r="D29" s="18" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E29" s="18">
         <v>10</v>
@@ -3244,31 +3134,28 @@
         <v>1</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L29" s="6">
+        <v>199</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E31" s="20">
         <v>5</v>
@@ -3277,24 +3164,21 @@
         <v>1</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="P31" s="18"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E32" s="20">
         <v>5</v>
@@ -3303,24 +3187,21 @@
         <v>1</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-      <c r="P32" s="18"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="O32" s="18"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E33" s="20">
         <v>5</v>
@@ -3329,24 +3210,21 @@
         <v>1</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="P33" s="18"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E34" s="20">
         <v>5</v>
@@ -3355,24 +3233,21 @@
         <v>1</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
-      <c r="P34" s="18"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E35" s="20">
         <v>5</v>
@@ -3381,24 +3256,21 @@
         <v>1</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="P35" s="18"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E36" s="20">
         <v>5</v>
@@ -3407,24 +3279,21 @@
         <v>1</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="P36" s="18"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E37" s="20">
         <v>5</v>
@@ -3433,24 +3302,21 @@
         <v>1</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7"/>
-      <c r="P37" s="18"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="O37" s="18"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E38" s="20">
         <v>5</v>
@@ -3459,24 +3325,21 @@
         <v>1</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="7"/>
-      <c r="P38" s="18"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E39" s="20">
         <v>5</v>
@@ -3485,24 +3348,21 @@
         <v>1</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7"/>
-      <c r="P39" s="18"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
+      <c r="O39" s="18"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E40" s="20">
         <v>5</v>
@@ -3511,24 +3371,21 @@
         <v>1</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="7"/>
-      <c r="P40" s="18"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E41" s="20">
         <v>5</v>
@@ -3537,24 +3394,21 @@
         <v>1</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="7"/>
-      <c r="P41" s="18"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="O41" s="18"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E42" s="20">
         <v>5</v>
@@ -3563,24 +3417,21 @@
         <v>1</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="7"/>
-      <c r="P42" s="18"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="7"/>
+      <c r="O42" s="18"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E43" s="20">
         <v>5</v>
@@ -3589,24 +3440,21 @@
         <v>1</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="7"/>
-      <c r="P43" s="18"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="O43" s="18"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E44" s="20">
         <v>5</v>
@@ -3615,24 +3463,21 @@
         <v>1</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="7"/>
-      <c r="P44" s="18"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="7"/>
+      <c r="O44" s="18"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E45" s="20">
         <v>5</v>
@@ -3641,24 +3486,21 @@
         <v>1</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="7"/>
-      <c r="P45" s="18"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="7"/>
+      <c r="O45" s="18"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E46" s="20">
         <v>5</v>
@@ -3667,24 +3509,21 @@
         <v>1</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="7"/>
-      <c r="P46" s="18"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="7"/>
+      <c r="O46" s="18"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E47" s="20">
         <v>5</v>
@@ -3693,24 +3532,21 @@
         <v>1</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="7"/>
-      <c r="P47" s="18"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="7"/>
+      <c r="O47" s="18"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E48" s="20">
         <v>5</v>
@@ -3719,62 +3555,55 @@
         <v>1</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J48" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
+      <c r="O48" s="18"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49" s="20">
+        <v>1</v>
+      </c>
+      <c r="F49" s="20">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
-      <c r="P48" s="18"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E49" s="20">
-        <v>1</v>
-      </c>
-      <c r="F49" s="20">
-        <v>1</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="7"/>
-      <c r="P49" s="18"/>
-    </row>
-    <row r="50" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+      <c r="O49" s="18"/>
+    </row>
+    <row r="50" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="5"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E51" s="4">
         <v>5</v>
@@ -3783,24 +3612,21 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E52" s="4">
         <v>5</v>
@@ -3809,24 +3635,21 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E53" s="4">
         <v>5</v>
@@ -3835,24 +3658,21 @@
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="1" t="s">
-        <v>319</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E54" s="4">
         <v>5</v>
@@ -3861,24 +3681,21 @@
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="1" t="s">
-        <v>321</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-    </row>
-    <row r="55" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E55" s="4">
         <v>5</v>
@@ -3887,23 +3704,20 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>323</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E56" s="4">
         <v>5</v>
@@ -3912,24 +3726,21 @@
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="1" t="s">
-        <v>325</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E57" s="4">
         <v>5</v>
@@ -3938,24 +3749,21 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="1" t="s">
-        <v>327</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E58" s="20">
         <v>5</v>
@@ -3964,21 +3772,18 @@
         <v>1</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E59" s="20">
         <v>5</v>
@@ -3987,21 +3792,18 @@
         <v>1</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E60" s="20">
         <v>5</v>
@@ -4010,21 +3812,18 @@
         <v>1</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="E61" s="20">
         <v>5</v>
@@ -4033,21 +3832,18 @@
         <v>1</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E62" s="20">
         <v>5</v>
@@ -4056,21 +3852,18 @@
         <v>1</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E63" s="20">
         <v>5</v>
@@ -4079,21 +3872,18 @@
         <v>1</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E64" s="20">
         <v>5</v>
@@ -4102,21 +3892,18 @@
         <v>1</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E65" s="20">
         <v>5</v>
@@ -4125,21 +3912,18 @@
         <v>1</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="E66" s="20">
         <v>5</v>
@@ -4148,22 +3932,19 @@
         <v>1</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E67" s="20">
         <v>5</v>
@@ -4172,22 +3953,19 @@
         <v>1</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E68" s="20">
         <v>5</v>
@@ -4196,22 +3974,19 @@
         <v>1</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="K68" s="20"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E69" s="20">
         <v>5</v>
@@ -4220,22 +3995,19 @@
         <v>1</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E70" s="20">
         <v>5</v>
@@ -4244,22 +4016,19 @@
         <v>1</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E71" s="20">
         <v>5</v>
@@ -4268,22 +4037,19 @@
         <v>1</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E72" s="20">
         <v>3</v>
@@ -4292,21 +4058,18 @@
         <v>1</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="20" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E73" s="20">
         <v>5</v>
@@ -4315,21 +4078,18 @@
         <v>1</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E74" s="20">
         <v>8</v>
@@ -4338,25 +4098,22 @@
         <v>1</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="20">
@@ -4365,25 +4122,22 @@
       <c r="F76" s="20">
         <v>4</v>
       </c>
-      <c r="G76" s="20" t="s">
-        <v>26</v>
+      <c r="G76" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J76" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="I76" s="18"/>
+      <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="20">
@@ -4392,25 +4146,22 @@
       <c r="F77" s="20">
         <v>8</v>
       </c>
-      <c r="G77" s="20" t="s">
-        <v>29</v>
+      <c r="G77" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J77" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="I77" s="18"/>
+      <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="20" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="20">
@@ -4419,25 +4170,22 @@
       <c r="F78" s="20">
         <v>4</v>
       </c>
-      <c r="G78" s="20" t="s">
-        <v>32</v>
+      <c r="G78" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J78" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="20" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="20">
@@ -4446,25 +4194,22 @@
       <c r="F79" s="20">
         <v>1</v>
       </c>
-      <c r="G79" s="20" t="s">
-        <v>26</v>
+      <c r="G79" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J79" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="I79" s="18"/>
+      <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="20" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="20">
@@ -4473,25 +4218,22 @@
       <c r="F80" s="20">
         <v>1</v>
       </c>
-      <c r="G80" s="20" t="s">
-        <v>26</v>
+      <c r="G80" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="I80" s="18"/>
+      <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="20" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="20">
@@ -4500,22 +4242,19 @@
       <c r="F81" s="20">
         <v>1</v>
       </c>
-      <c r="G81" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="G81" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -4525,24 +4264,21 @@
       <c r="F82" s="20">
         <v>1</v>
       </c>
-      <c r="G82" s="20" t="s">
-        <v>26</v>
+      <c r="G82" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I82" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>266</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -4552,21 +4288,18 @@
       <c r="F83" s="20">
         <v>1</v>
       </c>
-      <c r="G83" s="20" t="s">
-        <v>26</v>
+      <c r="G83" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="20" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
@@ -4576,22 +4309,19 @@
       <c r="F84" s="20">
         <v>1</v>
       </c>
-      <c r="G84" s="20" t="s">
-        <v>26</v>
+      <c r="G84" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="I84" s="18"/>
+      <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="20" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
@@ -4601,22 +4331,19 @@
       <c r="F85" s="20">
         <v>1</v>
       </c>
-      <c r="G85" s="20" t="s">
-        <v>26</v>
+      <c r="G85" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J85" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="I85" s="18"/>
+      <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="20" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -4626,28 +4353,25 @@
       <c r="F86" s="20">
         <v>1</v>
       </c>
-      <c r="G86" s="20" t="s">
-        <v>26</v>
+      <c r="G86" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J86" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="I86" s="18"/>
+      <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="20" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E87" s="20">
         <v>10</v>
@@ -4655,34 +4379,31 @@
       <c r="F87" s="20">
         <v>0.5</v>
       </c>
-      <c r="G87" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J87" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="G87" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="20" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="20">
@@ -4692,27 +4413,24 @@
         <v>1</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H89" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18" t="s">
-        <v>271</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E90" s="21">
         <v>5</v>
@@ -4720,27 +4438,24 @@
       <c r="F90" s="21">
         <v>4</v>
       </c>
-      <c r="G90" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H90" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="J90" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="G90" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I90" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E91" s="21">
         <v>5</v>
@@ -4748,27 +4463,24 @@
       <c r="F91" s="21">
         <v>4</v>
       </c>
-      <c r="G91" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="J91" s="22" t="s">
-        <v>48</v>
-      </c>
+      <c r="G91" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E92" s="21">
         <v>5</v>
@@ -4776,27 +4488,24 @@
       <c r="F92" s="21">
         <v>4</v>
       </c>
-      <c r="G92" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H92" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="J92" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="G92" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="20" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E93" s="20">
         <v>10</v>
@@ -4805,26 +4514,23 @@
         <v>8</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J93" s="18" t="s">
-        <v>51</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="20" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E94" s="20">
         <v>10</v>
@@ -4832,33 +4538,30 @@
       <c r="F94" s="20">
         <v>8</v>
       </c>
-      <c r="G94" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G94" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
+      <c r="G95" s="18"/>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B96" s="20" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E96" s="24">
         <v>7.5</v>
@@ -4867,24 +4570,21 @@
         <v>1</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I96" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B97" s="20" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E97" s="24">
         <v>7.5</v>
@@ -4893,24 +4593,21 @@
         <v>1</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B98" s="20" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E98" s="24">
         <v>7.5</v>
@@ -4919,24 +4616,21 @@
         <v>1</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I98" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B99" s="20" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E99" s="24">
         <v>5</v>
@@ -4945,24 +4639,21 @@
         <v>1</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H99" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J99" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B100" s="20" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E100" s="24">
         <v>5</v>
@@ -4971,24 +4662,21 @@
         <v>1</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H100" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J100" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B101" s="20" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E101" s="24">
         <v>5</v>
@@ -4997,24 +4685,21 @@
         <v>1</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H101" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J101" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B102" s="20" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E102" s="24">
         <v>7.5</v>
@@ -5022,25 +4707,22 @@
       <c r="F102" s="20">
         <v>1</v>
       </c>
-      <c r="G102" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="I102" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G102" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B103" s="20" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E103" s="24">
         <v>7.5</v>
@@ -5049,24 +4731,21 @@
         <v>1</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I103" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B104" s="20" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E104" s="24">
         <v>7.5</v>
@@ -5075,24 +4754,21 @@
         <v>1</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I104" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B105" s="20" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E105" s="24">
         <v>7.5</v>
@@ -5101,24 +4777,21 @@
         <v>1</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I105" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E106" s="24">
         <v>7.5</v>
@@ -5127,24 +4800,21 @@
         <v>1</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I106" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E107" s="24">
         <v>7.5</v>
@@ -5153,24 +4823,21 @@
         <v>1</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I107" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E108" s="24">
         <v>5</v>
@@ -5179,24 +4846,21 @@
         <v>1</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H108" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J108" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I108" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E109" s="24">
         <v>5</v>
@@ -5205,24 +4869,21 @@
         <v>1</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H109" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J109" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E110" s="24">
         <v>5</v>
@@ -5231,24 +4892,21 @@
         <v>1</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H110" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J110" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I110" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E111" s="24">
         <v>7.5</v>
@@ -5257,24 +4915,21 @@
         <v>0.5</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H111" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I111" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E112" s="24">
         <v>7.5</v>
@@ -5283,24 +4938,21 @@
         <v>0.5</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H112" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I112" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E113" s="24">
         <v>7.5</v>
@@ -5309,24 +4961,21 @@
         <v>0.5</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H113" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I113" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E114" s="24">
         <v>7.5</v>
@@ -5335,24 +4984,21 @@
         <v>3</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I114" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E115" s="24">
         <v>7.5</v>
@@ -5361,24 +5007,21 @@
         <v>3</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I115" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E116" s="24">
         <v>7.5</v>
@@ -5387,24 +5030,21 @@
         <v>3</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H116" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I116" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B117" s="20" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E117" s="24">
         <v>7.5</v>
@@ -5413,24 +5053,21 @@
         <v>0.5</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H117" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I117" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B118" s="20" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E118" s="24">
         <v>7.5</v>
@@ -5439,24 +5076,21 @@
         <v>0.5</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H118" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I118" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B119" s="20" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E119" s="24">
         <v>7.5</v>
@@ -5465,24 +5099,21 @@
         <v>0.5</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I119" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B120" s="20" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E120" s="24">
         <v>5</v>
@@ -5491,24 +5122,21 @@
         <v>1</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J120" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B121" s="20" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E121" s="24">
         <v>5</v>
@@ -5517,24 +5145,21 @@
         <v>1</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H121" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J121" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E122" s="24">
         <v>5</v>
@@ -5543,24 +5168,21 @@
         <v>1</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H122" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J122" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I122" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B123" s="20" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E123" s="24">
         <v>7.5</v>
@@ -5569,24 +5191,21 @@
         <v>1</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I123" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B124" s="20" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E124" s="24">
         <v>7.5</v>
@@ -5595,24 +5214,21 @@
         <v>1</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I124" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B125" s="20" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E125" s="24">
         <v>7.5</v>
@@ -5621,24 +5237,21 @@
         <v>1</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I125" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B126" s="20" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E126" s="24">
         <v>5</v>
@@ -5647,24 +5260,21 @@
         <v>3</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H126" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J126" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B127" s="20" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E127" s="24">
         <v>5</v>
@@ -5673,24 +5283,21 @@
         <v>3</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H127" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J127" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I127" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B128" s="20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E128" s="24">
         <v>5</v>
@@ -5699,24 +5306,21 @@
         <v>3</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H128" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J128" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I128" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B129" s="20" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E129" s="24">
         <v>5</v>
@@ -5725,24 +5329,21 @@
         <v>3</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H129" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J129" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I129" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B130" s="20" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E130" s="24">
         <v>5</v>
@@ -5751,24 +5352,21 @@
         <v>2</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H130" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J130" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I130" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B131" s="20" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E131" s="24">
         <v>5</v>
@@ -5777,24 +5375,21 @@
         <v>1</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H131" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J131" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B132" s="20" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E132" s="24">
         <v>7.5</v>
@@ -5803,24 +5398,21 @@
         <v>1</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I132" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B133" s="20" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E133" s="24">
         <v>7.5</v>
@@ -5829,24 +5421,21 @@
         <v>1</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H133" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I133" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B134" s="20" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E134" s="24">
         <v>7.5</v>
@@ -5855,24 +5444,21 @@
         <v>1</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H134" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I134" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B135" s="20" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E135" s="24">
         <v>7.5</v>
@@ -5881,24 +5467,21 @@
         <v>3</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H135" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I135" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B136" s="20" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E136" s="24">
         <v>7.5</v>
@@ -5907,24 +5490,21 @@
         <v>3</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H136" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I136" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B137" s="20" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E137" s="24">
         <v>7.5</v>
@@ -5933,24 +5513,21 @@
         <v>3</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H137" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I137" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B138" s="20" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E138" s="24">
         <v>15</v>
@@ -5959,24 +5536,21 @@
         <v>3</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I138" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B139" s="20" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E139" s="24">
         <v>15</v>
@@ -5985,24 +5559,21 @@
         <v>3</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H139" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I139" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B140" s="20" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E140" s="24">
         <v>15</v>
@@ -6011,24 +5582,21 @@
         <v>3</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H140" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I140" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B141" s="20" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E141" s="24">
         <v>7.5</v>
@@ -6037,24 +5605,21 @@
         <v>1</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I141" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B142" s="20" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E142" s="24">
         <v>7.5</v>
@@ -6063,24 +5628,21 @@
         <v>1</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I142" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B143" s="20" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E143" s="24">
         <v>7.5</v>
@@ -6089,24 +5651,21 @@
         <v>1</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I143" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" s="20" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E145" s="20">
         <v>10</v>
@@ -6114,25 +5673,22 @@
       <c r="F145" s="20">
         <v>0.5</v>
       </c>
-      <c r="G145" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H145" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I145" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G145" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H145" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="20" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E146" s="20">
         <v>10</v>
@@ -6140,25 +5696,22 @@
       <c r="F146" s="20">
         <v>0.3</v>
       </c>
-      <c r="G146" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H146" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I146" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G146" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H146" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" s="20" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E147" s="20">
         <v>10</v>
@@ -6166,25 +5719,22 @@
       <c r="F147" s="20">
         <v>0.2</v>
       </c>
-      <c r="G147" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H147" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I147" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G147" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H147" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E148" s="25">
         <v>10</v>
@@ -6192,27 +5742,24 @@
       <c r="F148" s="20">
         <v>1</v>
       </c>
-      <c r="G148" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H148" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I148" s="25" t="s">
-        <v>59</v>
-      </c>
+      <c r="G148" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H148" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J148" s="1"/>
       <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-    </row>
-    <row r="149" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="20" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E149" s="25">
         <v>10</v>
@@ -6220,27 +5767,24 @@
       <c r="F149" s="20">
         <v>0.5</v>
       </c>
-      <c r="G149" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H149" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I149" s="25" t="s">
-        <v>60</v>
-      </c>
+      <c r="G149" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H149" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J149" s="1"/>
       <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-    </row>
-    <row r="150" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="20" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E150" s="25">
         <v>10</v>
@@ -6248,27 +5792,24 @@
       <c r="F150" s="20">
         <v>0.3</v>
       </c>
-      <c r="G150" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H150" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I150" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="G150" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J150" s="1"/>
       <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-    </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" s="20" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E151" s="20">
         <v>15</v>
@@ -6276,25 +5817,22 @@
       <c r="F151" s="20">
         <v>1</v>
       </c>
-      <c r="G151" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H151" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="I151" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G151" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H151" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="20" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E152" s="20">
         <v>15</v>
@@ -6302,25 +5840,22 @@
       <c r="F152" s="20">
         <v>1</v>
       </c>
-      <c r="G152" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H152" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="I152" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G152" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H152" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" s="20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E153" s="20">
         <v>15</v>
@@ -6328,25 +5863,22 @@
       <c r="F153" s="20">
         <v>1</v>
       </c>
-      <c r="G153" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H153" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="I153" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G153" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H153" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="20" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E154" s="20">
         <v>15</v>
@@ -6354,25 +5886,22 @@
       <c r="F154" s="20">
         <v>1</v>
       </c>
-      <c r="G154" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H154" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I154" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G154" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H154" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B155" s="20" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E155" s="20">
         <v>15</v>
@@ -6380,25 +5909,22 @@
       <c r="F155" s="20">
         <v>1</v>
       </c>
-      <c r="G155" s="20" t="s">
-        <v>26</v>
+      <c r="G155" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I155" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" s="20" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E156" s="20">
         <v>10</v>
@@ -6406,25 +5932,22 @@
       <c r="F156" s="20">
         <v>4</v>
       </c>
-      <c r="G156" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H156" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I156" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G156" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H156" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="20" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E157" s="20">
         <v>10</v>
@@ -6432,25 +5955,22 @@
       <c r="F157" s="20">
         <v>2</v>
       </c>
-      <c r="G157" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I157" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G157" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H157" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E158" s="20">
         <v>10</v>
@@ -6458,25 +5978,22 @@
       <c r="F158" s="20">
         <v>1.6</v>
       </c>
-      <c r="G158" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H158" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I158" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G158" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H158" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="20" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E159" s="20">
         <v>10</v>
@@ -6484,25 +6001,22 @@
       <c r="F159" s="20">
         <v>1.5</v>
       </c>
-      <c r="G159" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H159" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I159" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G159" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H159" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" s="20" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E160" s="20">
         <v>10</v>
@@ -6510,25 +6024,22 @@
       <c r="F160" s="20">
         <v>0.9</v>
       </c>
-      <c r="G160" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H160" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I160" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G160" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H160" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="20" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E161" s="20">
         <v>10</v>
@@ -6536,25 +6047,22 @@
       <c r="F161" s="20">
         <v>0.6</v>
       </c>
-      <c r="G161" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H161" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I161" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G161" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H161" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="20" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E162" s="20">
         <v>10</v>
@@ -6562,25 +6070,22 @@
       <c r="F162" s="20">
         <v>2</v>
       </c>
-      <c r="G162" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H162" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I162" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G162" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H162" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="20" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E163" s="20">
         <v>10</v>
@@ -6588,25 +6093,22 @@
       <c r="F163" s="20">
         <v>1</v>
       </c>
-      <c r="G163" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H163" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I163" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G163" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H163" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="20" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E164" s="20">
         <v>10</v>
@@ -6614,25 +6116,22 @@
       <c r="F164" s="20">
         <v>0.5</v>
       </c>
-      <c r="G164" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H164" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I164" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G164" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H164" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E165" s="20">
         <v>5</v>
@@ -6640,25 +6139,22 @@
       <c r="F165" s="20">
         <v>0.5</v>
       </c>
-      <c r="G165" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H165" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J165" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G165" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I165" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="20" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E166" s="20">
         <v>5</v>
@@ -6666,25 +6162,22 @@
       <c r="F166" s="20">
         <v>0.5</v>
       </c>
-      <c r="G166" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H166" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J166" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G166" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I166" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="20" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E167" s="20">
         <v>5</v>
@@ -6692,50 +6185,47 @@
       <c r="F167" s="20">
         <v>0.5</v>
       </c>
-      <c r="G167" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H167" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J167" s="18" t="s">
-        <v>99</v>
+      <c r="G167" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I167" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B66:B67">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66:J67">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="I66:I67">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72:J74">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="I72:I74">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47488F64-C893-4F22-82E2-536EA9E6287D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03674590-2DED-4F87-AF00-5F10DC22DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="492">
   <si>
     <t>##var</t>
   </si>
@@ -479,24 +468,12 @@
     <t>GlobalBuffAdd_TowerAlchemy3</t>
   </si>
   <si>
-    <t>毒蝎塔1</t>
-  </si>
-  <si>
-    <t>单体攻击+敌军buff</t>
-  </si>
-  <si>
     <t>Timeline_TowerScorpio1</t>
   </si>
   <si>
-    <t>毒蝎塔2</t>
-  </si>
-  <si>
     <t>Timeline_TowerScorpio2</t>
   </si>
   <si>
-    <t>毒蝎塔3</t>
-  </si>
-  <si>
     <t>Timeline_TowerScorpio3</t>
   </si>
   <si>
@@ -674,24 +651,12 @@
     <t>BuffAdd_TowerZaiE3</t>
   </si>
   <si>
-    <t>窃贼哥布林1</t>
-  </si>
-  <si>
-    <t>单体攻击+偷钱</t>
-  </si>
-  <si>
     <t>Timeline_TowerGoblin1</t>
   </si>
   <si>
-    <t>窃贼哥布林2</t>
-  </si>
-  <si>
     <t>Timeline_TowerGoblin2</t>
   </si>
   <si>
-    <t>窃贼哥布林3</t>
-  </si>
-  <si>
     <t>Timeline_TowerGoblin3</t>
   </si>
   <si>
@@ -747,19 +712,6 @@
   </si>
   <si>
     <t>Timeline_TowerFireBall3</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Self</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Umbellate_1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Rectangle_All</t>
-  </si>
-  <si>
-    <t>string#ref=SelectObjectConfigCategory</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>释放对象选择</t>
@@ -1354,9 +1306,6 @@
     <t>Skill_TowerZaiE3</t>
   </si>
   <si>
-    <t>Skill_TowerGoblin1</t>
-  </si>
-  <si>
     <t>Skill_TowerGoblin2</t>
   </si>
   <si>
@@ -1567,73 +1516,6 @@
     <t>BuffAdd_Monster_Challenge5_5_4</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Umbellate_Scorpoio1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerSolo1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerSolo2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerSolo3</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerAoe1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerAoe2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerAoe3</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerLine1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerLine2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerLine3</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerCircle1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerCircle2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_PlayerCircle3</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_TowerDragon1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_TowerDragon2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_TowerDragon3</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_TowerElec1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_TowerElec2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_TowerElec3</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_TowerIce1</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_TowerIce2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Skill_TowerIce3</t>
-  </si>
-  <si>
     <t>Skill_Monster_Challenge_Niao1</t>
   </si>
   <si>
@@ -1655,6 +1537,166 @@
   </si>
   <si>
     <t>BuffAdd_Monster_Challenge_Niao3</t>
+  </si>
+  <si>
+    <t>毒蝎塔</t>
+  </si>
+  <si>
+    <t>毒蝎塔LV1攻击</t>
+  </si>
+  <si>
+    <t>毒蝎塔LV2攻击</t>
+  </si>
+  <si>
+    <t>毒蝎塔LV3攻击</t>
+  </si>
+  <si>
+    <t>哥布林LV1攻击</t>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>哥布林LV2攻击</t>
+  </si>
+  <si>
+    <t>哥布林LV3攻击</t>
+  </si>
+  <si>
+    <t>Skill_TowerGoblin1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_TowerBomb1</t>
+  </si>
+  <si>
+    <t>Skill_TowerBomb2</t>
+  </si>
+  <si>
+    <t>Skill_TowerBomb3</t>
+  </si>
+  <si>
+    <t>炸弹1攻击</t>
+  </si>
+  <si>
+    <t>炸弹2攻击</t>
+  </si>
+  <si>
+    <t>炸弹3攻击</t>
+  </si>
+  <si>
+    <t>Timeline_Skill_TowerBomb1</t>
+  </si>
+  <si>
+    <t>炸弹</t>
+  </si>
+  <si>
+    <t>Timeline_Skill_TowerBomb2</t>
+  </si>
+  <si>
+    <t>Timeline_Skill_TowerBomb3</t>
+  </si>
+  <si>
+    <t>string#ref=SelectObjectCfgCategory</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerSolo1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerSolo2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerSolo3</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerAoe1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerAoe2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerAoe3</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerLine1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerLine2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerLine3</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerCircle1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerCircle2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerCircle3</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerDragon1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerDragon2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerDragon3</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerElec1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerElec2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerElec3</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerIce1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerIce2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerIce3</t>
+  </si>
+  <si>
+    <t>SelectObject_Self</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerScorpio1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerScorpio2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerScorpio3</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerGoblin1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerGoblin2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerGoblin3</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerBomb1</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerBomb2</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_TowerBomb3</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_1</t>
+  </si>
+  <si>
+    <t>SelectObject_Rectangle_All</t>
   </si>
 </sst>
 </file>
@@ -2308,11 +2350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O167"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H165" sqref="H165"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2356,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -2396,7 +2438,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>202</v>
+        <v>458</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>11</v>
@@ -2444,7 +2486,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>21</v>
@@ -2453,18 +2495,18 @@
         <v>22</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E6" s="18">
         <v>15</v>
@@ -2473,16 +2515,16 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
@@ -2490,10 +2532,10 @@
     </row>
     <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E7" s="18">
         <v>15</v>
@@ -2502,16 +2544,16 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="K7" s="6">
         <v>2</v>
@@ -2519,10 +2561,10 @@
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E8" s="18">
         <v>15</v>
@@ -2531,16 +2573,16 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="K8" s="6">
         <v>3</v>
@@ -2548,10 +2590,10 @@
     </row>
     <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E9" s="18">
         <v>15</v>
@@ -2560,16 +2602,16 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K9" s="6">
         <v>1</v>
@@ -2577,10 +2619,10 @@
     </row>
     <row r="10" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E10" s="18">
         <v>15</v>
@@ -2589,16 +2631,16 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K10" s="6">
         <v>2</v>
@@ -2606,10 +2648,10 @@
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E11" s="18">
         <v>15</v>
@@ -2618,16 +2660,16 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K11" s="6">
         <v>3</v>
@@ -2635,10 +2677,10 @@
     </row>
     <row r="12" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E12" s="18">
         <v>15</v>
@@ -2647,16 +2689,16 @@
         <v>0.3</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K12" s="6">
         <v>1</v>
@@ -2664,10 +2706,10 @@
     </row>
     <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E13" s="18">
         <v>15</v>
@@ -2676,16 +2718,16 @@
         <v>0.3</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>60</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K13" s="6">
         <v>2</v>
@@ -2693,10 +2735,10 @@
     </row>
     <row r="14" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E14" s="18">
         <v>15</v>
@@ -2705,16 +2747,16 @@
         <v>0.3</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>61</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K14" s="6">
         <v>3</v>
@@ -2722,10 +2764,10 @@
     </row>
     <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E15" s="18">
         <v>15</v>
@@ -2734,16 +2776,16 @@
         <v>0.3</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>64</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K15" s="6">
         <v>1</v>
@@ -2751,10 +2793,10 @@
     </row>
     <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E16" s="18">
         <v>15</v>
@@ -2763,27 +2805,27 @@
         <v>0.3</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>66</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E17" s="18">
         <v>15</v>
@@ -2792,27 +2834,27 @@
         <v>0.3</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K17" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E18" s="18">
         <v>15</v>
@@ -2821,27 +2863,27 @@
         <v>3</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E19" s="18">
         <v>15</v>
@@ -2850,27 +2892,27 @@
         <v>3</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>72</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K19" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E20" s="18">
         <v>15</v>
@@ -2879,27 +2921,27 @@
         <v>3</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K20" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E21" s="18">
         <v>7.5</v>
@@ -2908,27 +2950,27 @@
         <v>1</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>76</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E22" s="18">
         <v>7.5</v>
@@ -2937,27 +2979,27 @@
         <v>1</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K22" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E23" s="18">
         <v>7.5</v>
@@ -2966,27 +3008,27 @@
         <v>1</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K23" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E24" s="18">
         <v>7.5</v>
@@ -2995,27 +3037,27 @@
         <v>1</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>83</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K24" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E25" s="18">
         <v>7.5</v>
@@ -3024,27 +3066,27 @@
         <v>1</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>85</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K25" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E26" s="18">
         <v>7.5</v>
@@ -3053,27 +3095,27 @@
         <v>1</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>87</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K26" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E27" s="18">
         <v>7.5</v>
@@ -3082,24 +3124,24 @@
         <v>1</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K27" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E28" s="18">
         <v>8.75</v>
@@ -3108,24 +3150,24 @@
         <v>1</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K28" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E29" s="18">
         <v>10</v>
@@ -3134,235 +3176,289 @@
         <v>1</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K29" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="20">
-        <v>5</v>
-      </c>
-      <c r="F31" s="20">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="O31" s="18"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E32" s="20">
-        <v>5</v>
-      </c>
-      <c r="F32" s="20">
-        <v>1</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-      <c r="O32" s="18"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="20">
-        <v>5</v>
-      </c>
-      <c r="F33" s="20">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="O33" s="18"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E34" s="20">
-        <v>5</v>
-      </c>
-      <c r="F34" s="20">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
-      <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E35" s="20">
-        <v>5</v>
-      </c>
-      <c r="F35" s="20">
-        <v>1</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
-      <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E36" s="20">
-        <v>5</v>
-      </c>
-      <c r="F36" s="20">
-        <v>1</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="7"/>
-      <c r="O36" s="18"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E37" s="20">
-        <v>5</v>
-      </c>
-      <c r="F37" s="20">
-        <v>1</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7"/>
-      <c r="O37" s="18"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E38" s="20">
-        <v>5</v>
-      </c>
-      <c r="F38" s="20">
-        <v>1</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="7"/>
-      <c r="O38" s="18"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" s="20">
-        <v>5</v>
-      </c>
-      <c r="F39" s="20">
-        <v>1</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>285</v>
-      </c>
+    <row r="30" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" s="18">
+        <v>15</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E31" s="18">
+        <v>15</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E32" s="18">
+        <v>15</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K32" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="E33" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E34" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K34" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="E35" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K35" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E36" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="E37" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K37" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K38" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J39" s="6"/>
       <c r="K39" s="7"/>
-      <c r="O39" s="18"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E40" s="20">
         <v>5</v>
@@ -3371,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="7"/>
@@ -3382,10 +3478,10 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E41" s="20">
         <v>5</v>
@@ -3394,10 +3490,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="7"/>
@@ -3405,10 +3501,10 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E42" s="20">
         <v>5</v>
@@ -3417,21 +3513,21 @@
         <v>1</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="7"/>
       <c r="O42" s="18"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>302</v>
+      <c r="B43" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E43" s="20">
         <v>5</v>
@@ -3440,10 +3536,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>303</v>
+        <v>480</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="7"/>
@@ -3451,10 +3547,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E44" s="20">
         <v>5</v>
@@ -3463,10 +3559,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3474,10 +3570,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E45" s="20">
         <v>5</v>
@@ -3486,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="7"/>
@@ -3497,10 +3593,10 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E46" s="20">
         <v>5</v>
@@ -3509,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="7"/>
@@ -3520,10 +3616,10 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E47" s="20">
         <v>5</v>
@@ -3532,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="7"/>
@@ -3543,10 +3639,10 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E48" s="20">
         <v>5</v>
@@ -3555,396 +3651,422 @@
         <v>1</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="7"/>
       <c r="O48" s="18"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>305</v>
+      <c r="B49" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>256</v>
       </c>
       <c r="E49" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F49" s="20">
         <v>1</v>
       </c>
-      <c r="G49" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>306</v>
+      <c r="G49" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="7"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="7"/>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="20">
+        <v>5</v>
+      </c>
+      <c r="F50" s="20">
+        <v>1</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="J50" s="6"/>
       <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="O50" s="18"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="20">
         <v>5</v>
       </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="1" t="s">
-        <v>309</v>
+      <c r="F51" s="20">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="O51" s="18"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="20">
         <v>5</v>
       </c>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="1" t="s">
-        <v>311</v>
+      <c r="F52" s="20">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="O52" s="18"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="20">
         <v>5</v>
       </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J53" s="7"/>
+      <c r="F53" s="20">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="J53" s="6"/>
       <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="O53" s="18"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="20">
         <v>5</v>
       </c>
-      <c r="F54" s="2">
-        <v>1</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="1" t="s">
-        <v>315</v>
+      <c r="F54" s="20">
+        <v>1</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="K54" s="7"/>
+      <c r="O54" s="18"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" s="20">
         <v>5</v>
       </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>317</v>
+      <c r="F55" s="20">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>285</v>
       </c>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="K55" s="7"/>
+      <c r="O55" s="18"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E56" s="20">
         <v>5</v>
       </c>
-      <c r="F56" s="2">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="1" t="s">
-        <v>319</v>
+      <c r="F56" s="20">
+        <v>1</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>287</v>
       </c>
       <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="K56" s="7"/>
+      <c r="O56" s="18"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="20">
         <v>5</v>
       </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="1" t="s">
-        <v>321</v>
+      <c r="F57" s="20">
+        <v>1</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="K57" s="7"/>
+      <c r="O57" s="18"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>423</v>
+      <c r="B58" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="E58" s="20">
+        <v>1</v>
+      </c>
+      <c r="F58" s="20">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="7"/>
+      <c r="O58" s="18"/>
+    </row>
+    <row r="59" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E60" s="4">
         <v>5</v>
       </c>
-      <c r="F58" s="20">
-        <v>1</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E59" s="20">
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E61" s="4">
         <v>5</v>
       </c>
-      <c r="F59" s="20">
-        <v>1</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E60" s="20">
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E62" s="4">
         <v>5</v>
       </c>
-      <c r="F60" s="20">
-        <v>1</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E61" s="20">
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E63" s="4">
         <v>5</v>
       </c>
-      <c r="F61" s="20">
-        <v>1</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E62" s="20">
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E64" s="4">
         <v>5</v>
       </c>
-      <c r="F62" s="20">
-        <v>1</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E63" s="20">
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E65" s="4">
         <v>5</v>
       </c>
-      <c r="F63" s="20">
-        <v>1</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E64" s="20">
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E66" s="4">
         <v>5</v>
       </c>
-      <c r="F64" s="20">
-        <v>1</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E65" s="20">
-        <v>5</v>
-      </c>
-      <c r="F65" s="20">
-        <v>1</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E66" s="20">
-        <v>5</v>
-      </c>
-      <c r="F66" s="20">
-        <v>1</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H66" s="2"/>
       <c r="I66" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="J66" s="20"/>
+        <v>309</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="E67" s="20">
         <v>5</v>
@@ -3953,19 +4075,18 @@
         <v>1</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="J67" s="20"/>
+        <v>411</v>
+      </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="E68" s="20">
         <v>5</v>
@@ -3974,19 +4095,18 @@
         <v>1</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="J68" s="20"/>
+        <v>412</v>
+      </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="E69" s="20">
         <v>5</v>
@@ -3995,19 +4115,18 @@
         <v>1</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J69" s="20"/>
+        <v>413</v>
+      </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="E70" s="20">
         <v>5</v>
@@ -4016,19 +4135,18 @@
         <v>1</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="J70" s="20"/>
+        <v>414</v>
+      </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="E71" s="20">
         <v>5</v>
@@ -4037,39 +4155,38 @@
         <v>1</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="J71" s="20"/>
+        <v>415</v>
+      </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="20" t="s">
-        <v>467</v>
+      <c r="B72" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="E72" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F72" s="20">
         <v>1</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="20" t="s">
-        <v>468</v>
+      <c r="B73" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="E73" s="20">
         <v>5</v>
@@ -4078,697 +4195,676 @@
         <v>1</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="20" t="s">
-        <v>469</v>
+      <c r="B74" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="E74" s="20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F74" s="20">
         <v>1</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="B75" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E75" s="20">
+        <v>5</v>
+      </c>
+      <c r="F75" s="20">
+        <v>1</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J75" s="20"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="18"/>
+      <c r="B76" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="E76" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F76" s="20">
-        <v>4</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J76" s="20"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="18"/>
+      <c r="B77" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="E77" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F77" s="20">
-        <v>8</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J77" s="20"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="18"/>
+      <c r="B78" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="E78" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F78" s="20">
-        <v>4</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J78" s="20"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="18"/>
+      <c r="B79" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="E79" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F79" s="20">
         <v>1</v>
       </c>
-      <c r="G79" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+      <c r="G79" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J79" s="20"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="18"/>
+      <c r="B80" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="E80" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F80" s="20">
         <v>1</v>
       </c>
-      <c r="G80" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="G80" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J80" s="20"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="18"/>
+        <v>432</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="E81" s="20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F81" s="20">
         <v>1</v>
       </c>
-      <c r="G81" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="G81" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
+        <v>433</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="E82" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F82" s="20">
         <v>1</v>
       </c>
-      <c r="G82" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H82" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="G82" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
+        <v>434</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="E83" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F83" s="20">
         <v>1</v>
       </c>
-      <c r="G83" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+      <c r="G83" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="20">
-        <v>10</v>
-      </c>
-      <c r="F84" s="20">
-        <v>1</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84" s="18"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C85" s="18"/>
+        <v>310</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="D85" s="18"/>
       <c r="E85" s="20">
         <v>10</v>
       </c>
       <c r="F85" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I85" s="18"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="18"/>
+        <v>311</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="D86" s="18"/>
       <c r="E86" s="20">
         <v>10</v>
       </c>
       <c r="F86" s="20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I86" s="18"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="20" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>37</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D87" s="18"/>
       <c r="E87" s="20">
         <v>10</v>
       </c>
       <c r="F87" s="20">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H87" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I87" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" s="18"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C88" s="18"/>
+      <c r="B88" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="D88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+      <c r="E88" s="20">
+        <v>10</v>
+      </c>
+      <c r="F88" s="20">
+        <v>1</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="18"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="20" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F89" s="20">
         <v>1</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" s="21">
-        <v>5</v>
-      </c>
-      <c r="F90" s="21">
-        <v>4</v>
-      </c>
-      <c r="G90" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I90" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="21">
-        <v>5</v>
-      </c>
-      <c r="F91" s="21">
-        <v>4</v>
-      </c>
-      <c r="G91" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I91" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" s="21">
-        <v>5</v>
-      </c>
-      <c r="F92" s="21">
-        <v>4</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I92" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" s="18"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="20">
+        <v>10</v>
+      </c>
+      <c r="F90" s="20">
+        <v>1</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="20">
+        <v>10</v>
+      </c>
+      <c r="F91" s="20">
+        <v>1</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="20">
+        <v>10</v>
+      </c>
+      <c r="F92" s="20">
+        <v>1</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>45</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="20">
         <v>10</v>
       </c>
       <c r="F93" s="20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>46</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="18"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>47</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="20">
         <v>10</v>
       </c>
       <c r="F94" s="20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="18"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="20" t="s">
+        <v>320</v>
+      </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="E95" s="20">
+        <v>10</v>
+      </c>
+      <c r="F95" s="20">
+        <v>1</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="I95" s="18"/>
-    </row>
-    <row r="96" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="C96" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="20">
+        <v>10</v>
+      </c>
+      <c r="F96" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="20">
+        <v>5</v>
+      </c>
+      <c r="F98" s="20">
+        <v>1</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="21">
+        <v>5</v>
+      </c>
+      <c r="F99" s="21">
+        <v>4</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="I99" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" s="21">
+        <v>5</v>
+      </c>
+      <c r="F100" s="21">
+        <v>4</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="21">
+        <v>5</v>
+      </c>
+      <c r="F101" s="21">
+        <v>4</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="I101" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="20">
+        <v>10</v>
+      </c>
+      <c r="F102" s="20">
+        <v>8</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="20">
+        <v>10</v>
+      </c>
+      <c r="F103" s="20">
+        <v>8</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B105" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D105" s="24" t="s">
         <v>96</v>
-      </c>
-      <c r="E96" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="F96" s="20">
-        <v>1</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H96" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B97" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E97" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="F97" s="20">
-        <v>1</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H97" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B98" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E98" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="F98" s="20">
-        <v>1</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H98" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B99" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E99" s="24">
-        <v>5</v>
-      </c>
-      <c r="F99" s="20">
-        <v>1</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I99" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B100" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E100" s="24">
-        <v>5</v>
-      </c>
-      <c r="F100" s="20">
-        <v>1</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I100" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B101" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E101" s="24">
-        <v>5</v>
-      </c>
-      <c r="F101" s="20">
-        <v>1</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I101" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B102" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E102" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="F102" s="20">
-        <v>1</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="H102" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B103" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E103" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="F103" s="20">
-        <v>1</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H103" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B104" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E104" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="F104" s="20">
-        <v>1</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H104" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B105" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="E105" s="24">
         <v>7.5</v>
@@ -4777,21 +4873,21 @@
         <v>1</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E106" s="24">
         <v>7.5</v>
@@ -4800,21 +4896,21 @@
         <v>1</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E107" s="24">
         <v>7.5</v>
@@ -4823,21 +4919,21 @@
         <v>1</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E108" s="24">
         <v>5</v>
@@ -4846,21 +4942,21 @@
         <v>1</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I108" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E109" s="24">
         <v>5</v>
@@ -4869,21 +4965,21 @@
         <v>1</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I109" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E110" s="24">
         <v>5</v>
@@ -4892,481 +4988,412 @@
         <v>1</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I110" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B111" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E111" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="F111" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G111" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H111" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B112" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E112" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="F112" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G112" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H112" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B113" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E113" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="F113" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G113" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H113" s="20" t="s">
-        <v>136</v>
+        <v>480</v>
+      </c>
+      <c r="I110" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E114" s="24">
         <v>7.5</v>
       </c>
       <c r="F114" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E115" s="24">
         <v>7.5</v>
       </c>
       <c r="F115" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E116" s="24">
         <v>7.5</v>
       </c>
       <c r="F116" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H116" s="20" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B117" s="20" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E117" s="24">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="F117" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H117" s="20" t="s">
-        <v>144</v>
+        <v>480</v>
+      </c>
+      <c r="I117" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B118" s="20" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E118" s="24">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="F118" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H118" s="20" t="s">
-        <v>146</v>
+        <v>480</v>
+      </c>
+      <c r="I118" s="20" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B119" s="20" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E119" s="24">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="F119" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H119" s="20" t="s">
-        <v>148</v>
+        <v>480</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B120" s="20" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E120" s="24">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F120" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I120" s="20" t="s">
-        <v>150</v>
+        <v>490</v>
+      </c>
+      <c r="H120" s="20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B121" s="20" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E121" s="24">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F121" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I121" s="20" t="s">
-        <v>152</v>
+        <v>490</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E122" s="24">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F122" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I122" s="20" t="s">
-        <v>154</v>
+        <v>490</v>
+      </c>
+      <c r="H122" s="20" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B123" s="20" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E123" s="24">
         <v>7.5</v>
       </c>
       <c r="F123" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B124" s="20" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E124" s="24">
         <v>7.5</v>
       </c>
       <c r="F124" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B125" s="20" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E125" s="24">
         <v>7.5</v>
       </c>
       <c r="F125" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B126" s="20" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E126" s="24">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F126" s="20">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I126" s="20" t="s">
-        <v>162</v>
+        <v>490</v>
+      </c>
+      <c r="H126" s="20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B127" s="20" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E127" s="24">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F127" s="20">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I127" s="20" t="s">
-        <v>164</v>
+        <v>490</v>
+      </c>
+      <c r="H127" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B128" s="20" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E128" s="24">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F128" s="20">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I128" s="20" t="s">
-        <v>166</v>
+        <v>490</v>
+      </c>
+      <c r="H128" s="20" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B129" s="20" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E129" s="24">
         <v>5</v>
       </c>
       <c r="F129" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I129" s="20" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B130" s="20" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E130" s="24">
         <v>5</v>
       </c>
       <c r="F130" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I130" s="20" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B131" s="20" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E131" s="24">
         <v>5</v>
@@ -5375,21 +5402,21 @@
         <v>1</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="I131" s="20" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B132" s="20" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E132" s="24">
         <v>7.5</v>
@@ -5398,21 +5425,21 @@
         <v>1</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B133" s="20" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E133" s="24">
         <v>7.5</v>
@@ -5421,21 +5448,21 @@
         <v>1</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H133" s="20" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B134" s="20" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E134" s="24">
         <v>7.5</v>
@@ -5444,787 +5471,925 @@
         <v>1</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H134" s="20" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B135" s="20" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E135" s="24">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="F135" s="20">
         <v>3</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H135" s="20" t="s">
-        <v>182</v>
+        <v>480</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B136" s="20" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E136" s="24">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="F136" s="20">
         <v>3</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H136" s="20" t="s">
-        <v>184</v>
+        <v>480</v>
+      </c>
+      <c r="I136" s="20" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B137" s="20" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E137" s="24">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="F137" s="20">
         <v>3</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H137" s="20" t="s">
-        <v>186</v>
+        <v>480</v>
+      </c>
+      <c r="I137" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B138" s="20" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="E138" s="24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F138" s="20">
         <v>3</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H138" s="20" t="s">
-        <v>188</v>
+        <v>480</v>
+      </c>
+      <c r="I138" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B139" s="20" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="E139" s="24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F139" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H139" s="20" t="s">
-        <v>190</v>
+        <v>480</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B140" s="20" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="E140" s="24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F140" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H140" s="20" t="s">
-        <v>192</v>
+        <v>480</v>
+      </c>
+      <c r="I140" s="20" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B141" s="20" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E141" s="24">
         <v>7.5</v>
       </c>
       <c r="F141" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B142" s="20" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E142" s="24">
         <v>7.5</v>
       </c>
       <c r="F142" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B143" s="20" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E143" s="24">
         <v>7.5</v>
       </c>
       <c r="F143" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B144" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E144" s="24">
+        <v>15</v>
+      </c>
+      <c r="F144" s="20">
+        <v>3</v>
+      </c>
+      <c r="G144" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="H144" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B145" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="C145" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D145" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E145" s="20">
-        <v>10</v>
+        <v>370</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" s="24">
+        <v>15</v>
       </c>
       <c r="F145" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G145" s="18" t="s">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>490</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B146" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D146" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" s="20">
-        <v>10</v>
+        <v>371</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146" s="24">
+        <v>15</v>
       </c>
       <c r="F146" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G146" s="18" t="s">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="G146" s="20" t="s">
+        <v>490</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B147" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D147" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E147" s="20">
-        <v>10</v>
+        <v>372</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E147" s="24">
+        <v>7.5</v>
       </c>
       <c r="F147" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="G147" s="18" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="G147" s="20" t="s">
+        <v>490</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="C148" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E148" s="25">
-        <v>10</v>
+        <v>373</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E148" s="24">
+        <v>7.5</v>
       </c>
       <c r="F148" s="20">
         <v>1</v>
       </c>
-      <c r="G148" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-    </row>
-    <row r="149" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="H148" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B149" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C149" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E149" s="25">
-        <v>10</v>
+        <v>374</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E149" s="24">
+        <v>7.5</v>
       </c>
       <c r="F149" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H149" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
-    </row>
-    <row r="150" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E150" s="25">
-        <v>10</v>
-      </c>
-      <c r="F150" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="H149" s="20" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" s="20" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E151" s="20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F151" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>201</v>
+        <v>490</v>
       </c>
       <c r="H151" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="20" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E152" s="20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F152" s="20">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>201</v>
+        <v>490</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" s="20" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E153" s="20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F153" s="20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>201</v>
+        <v>490</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="C154" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D154" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E154" s="20">
-        <v>15</v>
+        <v>378</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" s="25">
+        <v>10</v>
       </c>
       <c r="F154" s="20">
         <v>1</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H154" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D155" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E155" s="20">
-        <v>15</v>
+        <v>379</v>
+      </c>
+      <c r="C155" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D155" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E155" s="25">
+        <v>10</v>
       </c>
       <c r="F155" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H155" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="H155" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D156" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E156" s="20">
+        <v>380</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E156" s="25">
         <v>10</v>
       </c>
       <c r="F156" s="20">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H156" s="20" t="s">
-        <v>70</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H156" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>71</v>
+        <v>381</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E157" s="20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F157" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>200</v>
+        <v>491</v>
       </c>
       <c r="H157" s="20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>73</v>
+        <v>382</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E158" s="20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F158" s="20">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>200</v>
+        <v>491</v>
       </c>
       <c r="H158" s="20" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>75</v>
+        <v>383</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E159" s="20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F159" s="20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>200</v>
+        <v>491</v>
       </c>
       <c r="H159" s="20" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>77</v>
+        <v>384</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E160" s="20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F160" s="20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H160" s="20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>79</v>
+        <v>385</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E161" s="20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F161" s="20">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H161" s="20" t="s">
-        <v>80</v>
+        <v>490</v>
+      </c>
+      <c r="H161" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="20" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E162" s="20">
         <v>10</v>
       </c>
       <c r="F162" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H162" s="20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="20" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E163" s="20">
         <v>10</v>
       </c>
       <c r="F163" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H163" s="20" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="20" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E164" s="20">
         <v>10</v>
       </c>
       <c r="F164" s="20">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="G164" s="18" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="H164" s="20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="20" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E165" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F165" s="20">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I165" s="18" t="s">
-        <v>90</v>
+        <v>490</v>
+      </c>
+      <c r="H165" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="20" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E166" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F166" s="20">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I166" s="18" t="s">
-        <v>92</v>
+        <v>490</v>
+      </c>
+      <c r="H166" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="20" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C167" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="20">
+        <v>10</v>
+      </c>
+      <c r="F167" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G167" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H167" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E168" s="20">
+        <v>10</v>
+      </c>
+      <c r="F168" s="20">
+        <v>2</v>
+      </c>
+      <c r="G168" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H168" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E169" s="20">
+        <v>10</v>
+      </c>
+      <c r="F169" s="20">
+        <v>1</v>
+      </c>
+      <c r="G169" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H169" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E170" s="20">
+        <v>10</v>
+      </c>
+      <c r="F170" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G170" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H170" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E171" s="20">
+        <v>5</v>
+      </c>
+      <c r="F171" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G171" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="I171" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E172" s="20">
+        <v>5</v>
+      </c>
+      <c r="F172" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G172" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="I172" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C173" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D173" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E167" s="20">
+      <c r="E173" s="20">
         <v>5</v>
       </c>
-      <c r="F167" s="20">
+      <c r="F173" s="20">
         <v>0.5</v>
       </c>
-      <c r="G167" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I167" s="18" t="s">
+      <c r="G173" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="I173" s="18" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B66:B67">
+  <conditionalFormatting sqref="B75:B76">
     <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
+  <conditionalFormatting sqref="B77">
     <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B78">
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B79">
     <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B80">
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:I67">
+  <conditionalFormatting sqref="I75:I76">
     <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
+  <conditionalFormatting sqref="I77">
     <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I78">
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I79">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I80">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:I74">
+  <conditionalFormatting sqref="I81:I83">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E38D62-AE19-46EE-9FC6-F2661AB1FCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87508B7-F938-4D83-A88D-6914175CEE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="2" r:id="rId1"/>
     <sheet name="怪物" sheetId="3" r:id="rId2"/>
-    <sheet name="调试" sheetId="1" r:id="rId3"/>
+    <sheet name="player技能" sheetId="4" r:id="rId3"/>
+    <sheet name="调试" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="529">
   <si>
     <t>##var</t>
   </si>
@@ -1220,9 +1232,6 @@
     <t>string#ref=SelectObjectCfgCategory</t>
   </si>
   <si>
-    <t>SelectObject_Skill_PlayerSolo1</t>
-  </si>
-  <si>
     <t>SelectObject_Skill_PlayerSolo2</t>
   </si>
   <si>
@@ -1482,9 +1491,6 @@
   </si>
   <si>
     <t>BuffAdd_Default_Monster_XueRen1</t>
-  </si>
-  <si>
-    <t>BuffAdd_Default_Monster_XueRen2</t>
   </si>
   <si>
     <t>BuffAdd_Default_Monster_XueRen3</t>
@@ -1578,9 +1584,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>BuffAdd_Default_Monster_ZhongZi1</t>
-  </si>
-  <si>
     <t>BuffAdd_Default_Monster_ZhongZi2</t>
   </si>
   <si>
@@ -1597,9 +1600,6 @@
   </si>
   <si>
     <t>BuffAdd_Default_Monster_Dan2</t>
-  </si>
-  <si>
-    <t>BuffAdd_Default_Monster_Dan3</t>
   </si>
   <si>
     <t>Skill_Monster_Long1</t>
@@ -1629,14 +1629,212 @@
     <t>BuffAdd_Default_Monster_Long2</t>
   </si>
   <si>
-    <t>BuffAdd_Default_Monster_Long3</t>
+    <t>Skill_Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>怪物技能-蜜蜂3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Default_Monster_ZhongZi1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Default_Monster_MiFeng3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Skill_Monster_Dan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-蛋1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuffAdd_Default_Monster_Dan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Monster_Dan3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Timeline_Monster_Long3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuffAdd_Default_Monster_XueRen2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;BuffAdd_Default_Monster_XueRen2_Shield</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Monster_XueRen3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Skill_PlayerSolo1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Long3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Xueren3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerManualSkill_1_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerManualSkill_1_2</t>
+  </si>
+  <si>
+    <t>技能1_2</t>
+  </si>
+  <si>
+    <t>PlayerManualSkill_1_3</t>
+  </si>
+  <si>
+    <t>技能1_3</t>
+  </si>
+  <si>
+    <t>PlayerManualSkill_2_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerManualSkill_2_2</t>
+  </si>
+  <si>
+    <t>技能2_2</t>
+  </si>
+  <si>
+    <t>PlayerManualSkill_2_3</t>
+  </si>
+  <si>
+    <t>技能2_3</t>
+  </si>
+  <si>
+    <t>PlayerManualSkill_3_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerManualSkill_3_2</t>
+  </si>
+  <si>
+    <t>技能3_2</t>
+  </si>
+  <si>
+    <t>PlayerManualSkill_3_3</t>
+  </si>
+  <si>
+    <t>技能3_3</t>
+  </si>
+  <si>
+    <t>PlayerManualSkill_4_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能4_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerManualSkill_4_2</t>
+  </si>
+  <si>
+    <t>技能4_2</t>
+  </si>
+  <si>
+    <t>PlayerManualSkill_4_3</t>
+  </si>
+  <si>
+    <t>技能4_3</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_Area</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerManualSkill_1_1</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerManualSkill_2_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_RectangleArea</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_UmbellateArea</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerManualSkill_3_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_PlayerManualSkill_4_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1721,6 +1919,13 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1814,7 +2019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1888,6 +2093,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2192,28 +2399,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442DE5EE-AD1D-4212-A8E4-5731763B61A2}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2227,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>4</v>
@@ -2250,7 +2457,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2267,7 +2474,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -2281,10 +2488,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>10</v>
@@ -2304,7 +2511,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2323,7 +2530,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -2337,10 +2544,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>19</v>
@@ -2364,7 +2571,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>181</v>
       </c>
@@ -2372,7 +2579,7 @@
         <v>182</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -2384,7 +2591,7 @@
         <v>0.5</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>355</v>
+        <v>495</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>49</v>
@@ -2399,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>183</v>
       </c>
@@ -2407,7 +2614,7 @@
         <v>184</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F7" s="17">
         <v>1</v>
@@ -2419,7 +2626,7 @@
         <v>0.5</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>50</v>
@@ -2434,7 +2641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>185</v>
       </c>
@@ -2442,7 +2649,7 @@
         <v>186</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -2454,7 +2661,7 @@
         <v>0.5</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>51</v>
@@ -2469,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>188</v>
       </c>
@@ -2477,7 +2684,7 @@
         <v>189</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F9" s="17">
         <v>1</v>
@@ -2489,7 +2696,7 @@
         <v>0.5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>54</v>
@@ -2504,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>190</v>
       </c>
@@ -2512,7 +2719,7 @@
         <v>191</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F10" s="17">
         <v>1</v>
@@ -2524,7 +2731,7 @@
         <v>0.5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>55</v>
@@ -2539,7 +2746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>192</v>
       </c>
@@ -2547,7 +2754,7 @@
         <v>193</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F11" s="17">
         <v>1</v>
@@ -2559,7 +2766,7 @@
         <v>0.5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>56</v>
@@ -2574,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>195</v>
       </c>
@@ -2582,7 +2789,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -2594,7 +2801,7 @@
         <v>0.3</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>59</v>
@@ -2609,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>197</v>
       </c>
@@ -2617,7 +2824,7 @@
         <v>198</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F13" s="17">
         <v>1</v>
@@ -2629,7 +2836,7 @@
         <v>0.3</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>60</v>
@@ -2644,7 +2851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>199</v>
       </c>
@@ -2652,7 +2859,7 @@
         <v>200</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -2664,7 +2871,7 @@
         <v>0.3</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>61</v>
@@ -2679,7 +2886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>202</v>
       </c>
@@ -2687,7 +2894,7 @@
         <v>203</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F15" s="17">
         <v>1</v>
@@ -2699,7 +2906,7 @@
         <v>0.3</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>64</v>
@@ -2714,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>204</v>
       </c>
@@ -2722,7 +2929,7 @@
         <v>205</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
@@ -2734,7 +2941,7 @@
         <v>0.3</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>66</v>
@@ -2749,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
         <v>206</v>
       </c>
@@ -2757,7 +2964,7 @@
         <v>207</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F17" s="17">
         <v>1</v>
@@ -2769,7 +2976,7 @@
         <v>0.3</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>208</v>
@@ -2784,7 +2991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>210</v>
       </c>
@@ -2792,7 +2999,7 @@
         <v>211</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F18" s="17">
         <v>1</v>
@@ -2804,7 +3011,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>70</v>
@@ -2819,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
         <v>212</v>
       </c>
@@ -2827,7 +3034,7 @@
         <v>213</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F19" s="17">
         <v>1</v>
@@ -2839,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>72</v>
@@ -2854,7 +3061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>214</v>
       </c>
@@ -2862,7 +3069,7 @@
         <v>215</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -2874,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>74</v>
@@ -2889,7 +3096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>217</v>
       </c>
@@ -2897,7 +3104,7 @@
         <v>218</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F21" s="17">
         <v>1</v>
@@ -2909,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>76</v>
@@ -2924,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>219</v>
       </c>
@@ -2932,7 +3139,7 @@
         <v>220</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F22" s="17">
         <v>1</v>
@@ -2944,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>78</v>
@@ -2959,7 +3166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>221</v>
       </c>
@@ -2967,7 +3174,7 @@
         <v>222</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F23" s="17">
         <v>1</v>
@@ -2979,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J23" s="17" t="s">
         <v>80</v>
@@ -2994,7 +3201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>223</v>
       </c>
@@ -3002,7 +3209,7 @@
         <v>224</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F24" s="17">
         <v>1</v>
@@ -3014,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>83</v>
@@ -3029,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
         <v>225</v>
       </c>
@@ -3037,7 +3244,7 @@
         <v>226</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F25" s="17">
         <v>1</v>
@@ -3049,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>85</v>
@@ -3064,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
         <v>227</v>
       </c>
@@ -3072,7 +3279,7 @@
         <v>228</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F26" s="17">
         <v>1</v>
@@ -3084,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>87</v>
@@ -3099,7 +3306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>230</v>
       </c>
@@ -3107,7 +3314,7 @@
         <v>231</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F27" s="17">
         <v>1</v>
@@ -3119,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>238</v>
@@ -3131,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
         <v>232</v>
       </c>
@@ -3139,7 +3346,7 @@
         <v>233</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F28" s="17">
         <v>1</v>
@@ -3151,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>239</v>
@@ -3163,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
         <v>234</v>
       </c>
@@ -3171,7 +3378,7 @@
         <v>235</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F29" s="17">
         <v>1</v>
@@ -3183,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>240</v>
@@ -3195,7 +3402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="17" t="s">
         <v>268</v>
       </c>
@@ -3203,7 +3410,7 @@
         <v>336</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F30" s="17">
         <v>1</v>
@@ -3215,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>106</v>
@@ -3230,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
         <v>269</v>
       </c>
@@ -3238,7 +3445,7 @@
         <v>337</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F31" s="17">
         <v>1</v>
@@ -3250,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J31" s="17" t="s">
         <v>107</v>
@@ -3265,7 +3472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
         <v>270</v>
       </c>
@@ -3273,7 +3480,7 @@
         <v>338</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F32" s="17">
         <v>1</v>
@@ -3285,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>108</v>
@@ -3300,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
         <v>343</v>
       </c>
@@ -3308,7 +3515,7 @@
         <v>339</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F33" s="17">
         <v>1</v>
@@ -3320,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>161</v>
@@ -3335,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>298</v>
       </c>
@@ -3343,7 +3550,7 @@
         <v>341</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F34" s="17">
         <v>1</v>
@@ -3355,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>162</v>
@@ -3370,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
         <v>299</v>
       </c>
@@ -3378,7 +3585,7 @@
         <v>342</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F35" s="17">
         <v>1</v>
@@ -3390,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>163</v>
@@ -3405,7 +3612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
         <v>344</v>
       </c>
@@ -3413,7 +3620,7 @@
         <v>347</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F36" s="17">
         <v>1</v>
@@ -3425,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>350</v>
@@ -3440,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>345</v>
       </c>
@@ -3448,7 +3655,7 @@
         <v>348</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F37" s="17">
         <v>1</v>
@@ -3460,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J37" s="17" t="s">
         <v>352</v>
@@ -3475,7 +3682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>346</v>
       </c>
@@ -3483,7 +3690,7 @@
         <v>349</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F38" s="17">
         <v>1</v>
@@ -3495,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>353</v>
@@ -3510,16 +3717,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
         <v>303</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F39" s="17">
         <v>1</v>
@@ -3531,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>170</v>
@@ -3542,16 +3749,16 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
         <v>304</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F40" s="17">
         <v>1</v>
@@ -3563,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>171</v>
@@ -3574,16 +3781,16 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
         <v>305</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F41" s="17">
         <v>1</v>
@@ -3595,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J41" s="19" t="s">
         <v>172</v>
@@ -3606,16 +3813,16 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B42" s="19" t="s">
         <v>262</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F42" s="17">
         <v>1</v>
@@ -3627,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J42" s="19" t="s">
         <v>96</v>
@@ -3638,16 +3845,16 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
         <v>263</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F43" s="17">
         <v>1</v>
@@ -3659,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J43" s="19" t="s">
         <v>97</v>
@@ -3670,16 +3877,16 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
         <v>264</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F44" s="17">
         <v>1</v>
@@ -3691,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>98</v>
@@ -3702,16 +3909,16 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>286</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F45" s="17">
         <v>1</v>
@@ -3723,10 +3930,10 @@
         <v>2</v>
       </c>
       <c r="I45" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J45" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>236</v>
@@ -3734,16 +3941,16 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>287</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F46" s="17">
         <v>1</v>
@@ -3755,10 +3962,10 @@
         <v>2</v>
       </c>
       <c r="I46" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="J46" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>406</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>236</v>
@@ -3766,16 +3973,16 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
         <v>288</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F47" s="17">
         <v>1</v>
@@ -3787,10 +3994,10 @@
         <v>2</v>
       </c>
       <c r="I47" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" s="17" t="s">
         <v>407</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>236</v>
@@ -3798,16 +4005,16 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F48" s="17">
         <v>1</v>
@@ -3819,10 +4026,10 @@
         <v>2</v>
       </c>
       <c r="I48" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="J48" s="17" t="s">
         <v>410</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>411</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>236</v>
@@ -3830,16 +4037,16 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F49" s="17">
         <v>1</v>
@@ -3851,10 +4058,10 @@
         <v>2</v>
       </c>
       <c r="I49" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="J49" s="17" t="s">
         <v>413</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>414</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>236</v>
@@ -3862,16 +4069,16 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F50" s="17">
         <v>1</v>
@@ -3883,10 +4090,10 @@
         <v>2</v>
       </c>
       <c r="I50" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="J50" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>417</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>236</v>
@@ -3894,7 +4101,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3915,29 +4122,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDB5FF-BC06-4E94-B668-346010EE5615}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3951,10 +4158,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>4</v>
@@ -3974,7 +4181,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3991,7 +4198,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -4005,10 +4212,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>10</v>
@@ -4028,7 +4235,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4047,7 +4254,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -4061,10 +4268,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>19</v>
@@ -4088,15 +4295,15 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
-        <v>470</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>483</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -4108,23 +4315,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>376</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>463</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>468</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F7" s="17">
         <v>1</v>
@@ -4136,24 +4342,23 @@
         <v>0</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1" t="s">
-        <v>472</v>
+        <v>375</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>485</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -4165,23 +4370,24 @@
         <v>0</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>376</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F9" s="17">
         <v>1</v>
@@ -4193,24 +4399,23 @@
         <v>0</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>375</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F10" s="17">
         <v>1</v>
@@ -4222,23 +4427,24 @@
         <v>0</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>376</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F11" s="17">
         <v>1</v>
@@ -4250,23 +4456,23 @@
         <v>0</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -4278,24 +4484,23 @@
         <v>0</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>375</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>469</v>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>487</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F13" s="17">
         <v>1</v>
@@ -4307,25 +4512,26 @@
         <v>0</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>478</v>
+        <v>375</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="18" t="s">
+        <v>489</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>421</v>
+        <v>466</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>459</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="F14" s="1">
+        <v>452</v>
+      </c>
+      <c r="F14" s="17">
         <v>1</v>
       </c>
       <c r="G14" s="2">
@@ -4335,51 +4541,53 @@
         <v>0</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>376</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="1" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>422</v>
+        <v>467</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>460</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="F15" s="1">
+        <v>452</v>
+      </c>
+      <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>440</v>
-      </c>
+      <c r="I15" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="K15" s="1"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -4391,23 +4599,23 @@
         <v>0</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>482</v>
+    <row r="17" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -4419,23 +4627,23 @@
         <v>0</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>485</v>
+        <v>375</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>483</v>
+    <row r="18" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -4447,23 +4655,23 @@
         <v>0</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>486</v>
+        <v>375</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -4475,23 +4683,23 @@
         <v>0</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>424</v>
+    <row r="20" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>479</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -4503,51 +4711,52 @@
         <v>0</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>442</v>
+        <v>375</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>482</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>425</v>
+    <row r="21" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>480</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>443</v>
-      </c>
+      <c r="I21" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -4559,23 +4768,23 @@
         <v>0</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -4583,55 +4792,58 @@
       <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>445</v>
+        <v>375</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>493</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>376</v>
+      <c r="I24" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>494</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -4643,20 +4855,76 @@
         <v>0</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
     </row>
+    <row r="26" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B14:B25">
+  <conditionalFormatting sqref="B16:B27">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K25">
+  <conditionalFormatting sqref="K16:K20 K22:K27">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4664,31 +4932,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E0CF47-3C7B-457C-BEED-9917D5A322B0}">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="19" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9" style="19" customWidth="1"/>
-    <col min="4" max="5" width="19.75" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="19" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="19" customWidth="1"/>
-    <col min="9" max="9" width="32.75" style="19" customWidth="1"/>
-    <col min="10" max="10" width="26.875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="26.75" style="19" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="19"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4702,10 +4961,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>4</v>
@@ -4725,7 +4984,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4742,7 +5001,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -4756,10 +5015,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>10</v>
@@ -4779,7 +5038,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4798,7 +5057,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -4812,10 +5071,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>19</v>
@@ -4839,7 +5098,517 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>9</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>9</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>9</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>9</v>
+      </c>
+      <c r="H12" s="19">
+        <v>2</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
+        <v>9</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>9</v>
+      </c>
+      <c r="H14" s="19">
+        <v>2</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="23">
+        <v>9</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23">
+        <v>9</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23">
+        <v>9</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="K17" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M83"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9" style="19" customWidth="1"/>
+    <col min="4" max="5" width="19.77734375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" style="19" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>244</v>
       </c>
@@ -4848,7 +5617,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -4860,7 +5629,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>24</v>
@@ -4869,7 +5638,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>245</v>
       </c>
@@ -4878,7 +5647,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F7" s="17">
         <v>1</v>
@@ -4890,7 +5659,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>26</v>
@@ -4899,7 +5668,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>246</v>
       </c>
@@ -4908,7 +5677,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -4920,7 +5689,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>24</v>
@@ -4929,7 +5698,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>247</v>
       </c>
@@ -4938,7 +5707,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F9" s="17">
         <v>1</v>
@@ -4950,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>28</v>
@@ -4959,7 +5728,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>248</v>
       </c>
@@ -4968,7 +5737,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F10" s="17">
         <v>1</v>
@@ -4980,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>29</v>
@@ -4989,7 +5758,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>249</v>
       </c>
@@ -4998,7 +5767,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F11" s="17">
         <v>1</v>
@@ -5010,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17" t="s">
@@ -5019,14 +5788,14 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>250</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -5038,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>31</v>
@@ -5049,14 +5818,14 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>251</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F13" s="17">
         <v>1</v>
@@ -5068,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>32</v>
@@ -5076,14 +5845,14 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>252</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -5095,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>33</v>
@@ -5104,14 +5873,14 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>253</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F15" s="17">
         <v>1</v>
@@ -5123,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>34</v>
@@ -5132,14 +5901,14 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>254</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
@@ -5151,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>35</v>
@@ -5160,7 +5929,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>255</v>
       </c>
@@ -5171,7 +5940,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F17" s="17">
         <v>1</v>
@@ -5183,7 +5952,7 @@
         <v>0.5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>38</v>
@@ -5194,7 +5963,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -5203,7 +5972,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>256</v>
       </c>
@@ -5212,7 +5981,7 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F19" s="17">
         <v>1</v>
@@ -5224,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
@@ -5233,7 +6002,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
         <v>257</v>
       </c>
@@ -5244,7 +6013,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -5256,7 +6025,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>42</v>
@@ -5264,7 +6033,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>258</v>
       </c>
@@ -5275,7 +6044,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F21" s="17">
         <v>1</v>
@@ -5287,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>43</v>
@@ -5295,7 +6064,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
         <v>259</v>
       </c>
@@ -5306,7 +6075,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F22" s="17">
         <v>1</v>
@@ -5318,7 +6087,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>44</v>
@@ -5326,7 +6095,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>260</v>
       </c>
@@ -5337,7 +6106,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F23" s="17">
         <v>1</v>
@@ -5349,7 +6118,7 @@
         <v>8</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K23" s="17" t="s">
         <v>46</v>
@@ -5357,7 +6126,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>261</v>
       </c>
@@ -5368,7 +6137,7 @@
         <v>47</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F24" s="17">
         <v>1</v>
@@ -5380,14 +6149,14 @@
         <v>8</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -5396,7 +6165,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>265</v>
       </c>
@@ -5407,7 +6176,7 @@
         <v>100</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>
@@ -5419,13 +6188,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>266</v>
       </c>
@@ -5436,7 +6205,7 @@
         <v>100</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F27" s="23">
         <v>1</v>
@@ -5448,13 +6217,13 @@
         <v>1</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
         <v>267</v>
       </c>
@@ -5465,7 +6234,7 @@
         <v>100</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F28" s="23">
         <v>1</v>
@@ -5477,16 +6246,16 @@
         <v>1</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>271</v>
       </c>
@@ -5497,7 +6266,7 @@
         <v>110</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F30" s="23">
         <v>1</v>
@@ -5509,13 +6278,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
         <v>272</v>
       </c>
@@ -5526,7 +6295,7 @@
         <v>110</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F31" s="23">
         <v>1</v>
@@ -5538,13 +6307,13 @@
         <v>1</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
         <v>273</v>
       </c>
@@ -5555,7 +6324,7 @@
         <v>110</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F32" s="23">
         <v>1</v>
@@ -5567,13 +6336,13 @@
         <v>1</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J32" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
         <v>274</v>
       </c>
@@ -5584,7 +6353,7 @@
         <v>117</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F33" s="23">
         <v>1</v>
@@ -5596,13 +6365,13 @@
         <v>1</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>275</v>
       </c>
@@ -5613,7 +6382,7 @@
         <v>117</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F34" s="23">
         <v>1</v>
@@ -5625,13 +6394,13 @@
         <v>1</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
         <v>276</v>
       </c>
@@ -5642,7 +6411,7 @@
         <v>117</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F35" s="23">
         <v>1</v>
@@ -5654,13 +6423,13 @@
         <v>1</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K35" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
         <v>277</v>
       </c>
@@ -5671,7 +6440,7 @@
         <v>124</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F36" s="23">
         <v>1</v>
@@ -5683,13 +6452,13 @@
         <v>0.5</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J36" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>278</v>
       </c>
@@ -5700,7 +6469,7 @@
         <v>124</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F37" s="23">
         <v>1</v>
@@ -5712,13 +6481,13 @@
         <v>0.5</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J37" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
         <v>279</v>
       </c>
@@ -5729,7 +6498,7 @@
         <v>124</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F38" s="23">
         <v>1</v>
@@ -5741,13 +6510,13 @@
         <v>0.5</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J38" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
         <v>280</v>
       </c>
@@ -5758,7 +6527,7 @@
         <v>110</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F39" s="23">
         <v>1</v>
@@ -5770,13 +6539,13 @@
         <v>3</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
         <v>281</v>
       </c>
@@ -5787,7 +6556,7 @@
         <v>110</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F40" s="23">
         <v>1</v>
@@ -5799,13 +6568,13 @@
         <v>3</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
         <v>282</v>
       </c>
@@ -5816,7 +6585,7 @@
         <v>110</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F41" s="23">
         <v>1</v>
@@ -5828,13 +6597,13 @@
         <v>3</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J41" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B42" s="19" t="s">
         <v>283</v>
       </c>
@@ -5845,7 +6614,7 @@
         <v>124</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F42" s="23">
         <v>1</v>
@@ -5857,13 +6626,13 @@
         <v>0.5</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J42" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
         <v>284</v>
       </c>
@@ -5874,7 +6643,7 @@
         <v>124</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F43" s="23">
         <v>1</v>
@@ -5886,13 +6655,13 @@
         <v>0.5</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J43" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
         <v>285</v>
       </c>
@@ -5903,7 +6672,7 @@
         <v>124</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F44" s="23">
         <v>1</v>
@@ -5915,13 +6684,13 @@
         <v>0.5</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>289</v>
       </c>
@@ -5932,7 +6701,7 @@
         <v>95</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F45" s="23">
         <v>1</v>
@@ -5944,13 +6713,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J45" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>290</v>
       </c>
@@ -5961,7 +6730,7 @@
         <v>95</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F46" s="23">
         <v>1</v>
@@ -5973,13 +6742,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
         <v>291</v>
       </c>
@@ -5990,7 +6759,7 @@
         <v>95</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F47" s="23">
         <v>1</v>
@@ -6002,13 +6771,13 @@
         <v>1</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J47" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>292</v>
       </c>
@@ -6019,7 +6788,7 @@
         <v>117</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F48" s="23">
         <v>1</v>
@@ -6031,13 +6800,13 @@
         <v>3</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>293</v>
       </c>
@@ -6048,7 +6817,7 @@
         <v>117</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F49" s="23">
         <v>1</v>
@@ -6060,13 +6829,13 @@
         <v>3</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>294</v>
       </c>
@@ -6077,7 +6846,7 @@
         <v>117</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F50" s="23">
         <v>1</v>
@@ -6089,13 +6858,13 @@
         <v>3</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K50" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>295</v>
       </c>
@@ -6106,7 +6875,7 @@
         <v>155</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F51" s="23">
         <v>1</v>
@@ -6118,13 +6887,13 @@
         <v>3</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K51" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>296</v>
       </c>
@@ -6135,7 +6904,7 @@
         <v>155</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F52" s="23">
         <v>1</v>
@@ -6147,13 +6916,13 @@
         <v>2</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K52" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>297</v>
       </c>
@@ -6164,7 +6933,7 @@
         <v>155</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F53" s="23">
         <v>1</v>
@@ -6176,13 +6945,13 @@
         <v>1</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K53" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>300</v>
       </c>
@@ -6193,7 +6962,7 @@
         <v>124</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F54" s="23">
         <v>1</v>
@@ -6205,13 +6974,13 @@
         <v>3</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J54" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>301</v>
       </c>
@@ -6222,7 +6991,7 @@
         <v>124</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F55" s="23">
         <v>1</v>
@@ -6234,13 +7003,13 @@
         <v>3</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J55" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
         <v>302</v>
       </c>
@@ -6251,7 +7020,7 @@
         <v>124</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F56" s="23">
         <v>1</v>
@@ -6263,13 +7032,13 @@
         <v>3</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J56" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
         <v>306</v>
       </c>
@@ -6280,7 +7049,7 @@
         <v>110</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F57" s="23">
         <v>1</v>
@@ -6292,13 +7061,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B58" s="19" t="s">
         <v>307</v>
       </c>
@@ -6309,7 +7078,7 @@
         <v>110</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F58" s="23">
         <v>1</v>
@@ -6321,13 +7090,13 @@
         <v>1</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J58" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
         <v>308</v>
       </c>
@@ -6338,7 +7107,7 @@
         <v>110</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F59" s="23">
         <v>1</v>
@@ -6350,16 +7119,16 @@
         <v>1</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J59" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E60" s="17"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
         <v>309</v>
       </c>
@@ -6370,7 +7139,7 @@
         <v>37</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F61" s="17">
         <v>1</v>
@@ -6382,13 +7151,13 @@
         <v>0.5</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J61" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="19" t="s">
         <v>310</v>
       </c>
@@ -6399,7 +7168,7 @@
         <v>37</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F62" s="17">
         <v>1</v>
@@ -6411,13 +7180,13 @@
         <v>0.3</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J62" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
         <v>311</v>
       </c>
@@ -6428,7 +7197,7 @@
         <v>37</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F63" s="17">
         <v>1</v>
@@ -6440,13 +7209,13 @@
         <v>0.2</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J63" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="19" t="s">
         <v>312</v>
       </c>
@@ -6457,7 +7226,7 @@
         <v>53</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F64" s="17">
         <v>1</v>
@@ -6469,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J64" s="24" t="s">
         <v>54</v>
@@ -6477,7 +7246,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
         <v>313</v>
       </c>
@@ -6488,7 +7257,7 @@
         <v>53</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F65" s="17">
         <v>1</v>
@@ -6500,7 +7269,7 @@
         <v>0.5</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J65" s="24" t="s">
         <v>55</v>
@@ -6508,7 +7277,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="19" t="s">
         <v>314</v>
       </c>
@@ -6519,7 +7288,7 @@
         <v>53</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F66" s="17">
         <v>1</v>
@@ -6531,7 +7300,7 @@
         <v>0.3</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J66" s="24" t="s">
         <v>56</v>
@@ -6539,7 +7308,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="19" t="s">
         <v>315</v>
       </c>
@@ -6550,7 +7319,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F67" s="17">
         <v>1</v>
@@ -6562,13 +7331,13 @@
         <v>1</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J67" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="19" t="s">
         <v>316</v>
       </c>
@@ -6579,7 +7348,7 @@
         <v>58</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F68" s="17">
         <v>1</v>
@@ -6591,13 +7360,13 @@
         <v>1</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J68" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="19" t="s">
         <v>317</v>
       </c>
@@ -6608,7 +7377,7 @@
         <v>58</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F69" s="17">
         <v>1</v>
@@ -6620,13 +7389,13 @@
         <v>1</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J69" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="19" t="s">
         <v>318</v>
       </c>
@@ -6637,7 +7406,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F70" s="17">
         <v>1</v>
@@ -6649,13 +7418,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J70" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="19" t="s">
         <v>319</v>
       </c>
@@ -6666,7 +7435,7 @@
         <v>63</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F71" s="17">
         <v>1</v>
@@ -6678,13 +7447,13 @@
         <v>1</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J71" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="19" t="s">
         <v>320</v>
       </c>
@@ -6695,7 +7464,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F72" s="17">
         <v>1</v>
@@ -6707,13 +7476,13 @@
         <v>4</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J72" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="19" t="s">
         <v>321</v>
       </c>
@@ -6724,7 +7493,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F73" s="17">
         <v>1</v>
@@ -6736,13 +7505,13 @@
         <v>2</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J73" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="19" t="s">
         <v>322</v>
       </c>
@@ -6753,7 +7522,7 @@
         <v>69</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F74" s="17">
         <v>1</v>
@@ -6765,13 +7534,13 @@
         <v>1.6</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J74" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="19" t="s">
         <v>323</v>
       </c>
@@ -6782,7 +7551,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F75" s="17">
         <v>1</v>
@@ -6794,13 +7563,13 @@
         <v>1.5</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J75" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
         <v>324</v>
       </c>
@@ -6811,7 +7580,7 @@
         <v>69</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F76" s="17">
         <v>1</v>
@@ -6823,13 +7592,13 @@
         <v>0.9</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J76" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="19" t="s">
         <v>325</v>
       </c>
@@ -6840,7 +7609,7 @@
         <v>69</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F77" s="17">
         <v>1</v>
@@ -6852,13 +7621,13 @@
         <v>0.6</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
         <v>326</v>
       </c>
@@ -6869,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F78" s="17">
         <v>1</v>
@@ -6881,13 +7650,13 @@
         <v>2</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J78" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="19" t="s">
         <v>327</v>
       </c>
@@ -6898,7 +7667,7 @@
         <v>82</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F79" s="17">
         <v>1</v>
@@ -6910,13 +7679,13 @@
         <v>1</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J79" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="19" t="s">
         <v>328</v>
       </c>
@@ -6927,7 +7696,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F80" s="17">
         <v>1</v>
@@ -6939,13 +7708,13 @@
         <v>0.5</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J80" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="19" t="s">
         <v>329</v>
       </c>
@@ -6956,7 +7725,7 @@
         <v>89</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F81" s="17">
         <v>1</v>
@@ -6968,13 +7737,13 @@
         <v>0.5</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K81" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="19" t="s">
         <v>330</v>
       </c>
@@ -6985,7 +7754,7 @@
         <v>89</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F82" s="17">
         <v>1</v>
@@ -6997,13 +7766,13 @@
         <v>0.5</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K82" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="19" t="s">
         <v>331</v>
       </c>
@@ -7014,7 +7783,7 @@
         <v>89</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F83" s="17">
         <v>1</v>
@@ -7026,7 +7795,7 @@
         <v>0.5</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K83" s="17" t="s">
         <v>94</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87508B7-F938-4D83-A88D-6914175CEE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBC36DA-1DE2-4946-AF08-12A276854596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="2" r:id="rId1"/>
@@ -18,23 +18,15 @@
     <sheet name="player技能" sheetId="4" r:id="rId3"/>
     <sheet name="调试" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="582">
   <si>
     <t>##var</t>
   </si>
@@ -1806,9 +1798,6 @@
     <t>技能4_3</t>
   </si>
   <si>
-    <t>SelectObject_Skill_Camera_Area</t>
-  </si>
-  <si>
     <t>Timeline_PlayerManualSkill_1_1</t>
   </si>
   <si>
@@ -1827,6 +1816,203 @@
   </si>
   <si>
     <t>Timeline_PlayerManualSkill_4_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>PlayerSkill_IceBind</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_PurifyWater</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_Enhance</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_Silence</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>PlayerSkill_Hellfire</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_Blackhole</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害敌方并降低护甲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造结界，敌人大幅减速，友军大幅加速</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化药水</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化子弹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时大幅强化一名友军并使其无敌</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止范围内敌人使用任何技能，且造成持续伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林召唤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个哥布林在一段时间内偷取敌人金钱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>降下大范围火焰，并留下火焰灼烧经过的敌人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续吸引大片敌人，造成生命上限的百分比伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_Hellfire</t>
+  </si>
+  <si>
+    <t>Timeline_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_OtherUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_OtherArea</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ResIconCfgCategory?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Skill_Function1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Skill_Function2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Skill_Function3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_PlayerSkill_IceBind</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_Hellfire</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>icon资源路径</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电领域</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>从天上掉落圣水，驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1950,7 +2136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1999,6 +2185,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2019,7 +2218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2095,6 +2294,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2137,6 +2360,475 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="防御塔"/>
+      <sheetName val="怪物"/>
+      <sheetName val="技能"/>
+      <sheetName val="无限模式"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="引导"/>
+      <sheetName val="参考"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>定位</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>效果</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>名称</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>描述</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>输出收益</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>攻击</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>攻速</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>CD</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>弹匣</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>每秒恢复</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>每回合回复</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>解锁价格</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>补充价格</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>PlayerSkill_BreakArmor</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>免费-低技巧-泛用机制-补充便宜</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>减甲弹-小范围群体</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>破甲弹</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>伤害敌方并降低护甲</v>
+          </cell>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>50</v>
+          </cell>
+          <cell r="H2">
+            <v>1</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>30</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>10</v>
+          </cell>
+          <cell r="M2">
+            <v>0</v>
+          </cell>
+          <cell r="N2">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>PlayerSkill_IceBind</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>免费-中技巧-泛用机制-补充便宜</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>冰弹-中范围冻结</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>冻结范围内的所有敌人</v>
+          </cell>
+          <cell r="F3">
+            <v>2</v>
+          </cell>
+          <cell r="G3">
+            <v>50</v>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>3</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="L3">
+            <v>1</v>
+          </cell>
+          <cell r="M3">
+            <v>0</v>
+          </cell>
+          <cell r="N3">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>PlayerSkill_TimeBarrier</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>免费-高技巧-泛用机制-补充便宜</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>时间结界-大范围减速加速</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>时空结界</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>创造结界，敌人大幅减速，友军大幅加速</v>
+          </cell>
+          <cell r="F4">
+            <v>3</v>
+          </cell>
+          <cell r="G4">
+            <v>50</v>
+          </cell>
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>1</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
+          <cell r="L4">
+            <v>0.34</v>
+          </cell>
+          <cell r="M4">
+            <v>0</v>
+          </cell>
+          <cell r="N4">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>PlayerSkill_PurifyWater</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>钻石-低技巧-针对性机制-补充中等</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>圣水-小范围驱散</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>净化药水</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>从天上掉落圣水，驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>50</v>
+          </cell>
+          <cell r="H5">
+            <v>1</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>10</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>5</v>
+          </cell>
+          <cell r="M5">
+            <v>500</v>
+          </cell>
+          <cell r="N5">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>PlayerSkill_Enhance</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>钻石-中技巧-针对性机制-补充中等</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>强化药剂-一个友军强化且无敌</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>强化子弹</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>暂时大幅强化一名友军并使其无敌</v>
+          </cell>
+          <cell r="F6">
+            <v>2</v>
+          </cell>
+          <cell r="G6">
+            <v>50</v>
+          </cell>
+          <cell r="H6">
+            <v>1</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>3</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>1</v>
+          </cell>
+          <cell r="M6">
+            <v>1000</v>
+          </cell>
+          <cell r="N6">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>PlayerSkill_Silence</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>钻石-高技巧-针对性机制-补充中等</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>魔法阵-大范围沉默dot</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>雷电领域</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>禁止范围内敌人使用任何技能，且造成持续伤害</v>
+          </cell>
+          <cell r="F7">
+            <v>3</v>
+          </cell>
+          <cell r="G7">
+            <v>50</v>
+          </cell>
+          <cell r="H7">
+            <v>1</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+          <cell r="L7">
+            <v>0.34</v>
+          </cell>
+          <cell r="M7">
+            <v>2000</v>
+          </cell>
+          <cell r="N7">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>PlayerSkill_GoblinSummon</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>付费-低技巧-强力泛用机制-补充较贵</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>增援召唤物-随机单体偷钱</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>哥布林召唤</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>召唤一个哥布林在一段时间内偷取敌人金钱</v>
+          </cell>
+          <cell r="F8">
+            <v>1</v>
+          </cell>
+          <cell r="G8">
+            <v>50</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>10</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>5</v>
+          </cell>
+          <cell r="M8">
+            <v>1</v>
+          </cell>
+          <cell r="N8">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>PlayerSkill_Hellfire</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>付费-中技巧-强力泛用机制-补充较贵</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>点燃地面-灼烧范围敌人</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>地狱烈焰</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>降下大范围火焰，并留下火焰灼烧经过的敌人</v>
+          </cell>
+          <cell r="F9">
+            <v>2</v>
+          </cell>
+          <cell r="G9">
+            <v>50</v>
+          </cell>
+          <cell r="H9">
+            <v>1</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>3</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>1</v>
+          </cell>
+          <cell r="M9">
+            <v>2</v>
+          </cell>
+          <cell r="N9">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>PlayerSkill_Blackhole</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>付费-高技巧-强力泛用机制-补充较贵</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>黑洞-大范围百分比伤害</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>黑洞</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>持续吸引大片敌人，造成生命上限的百分比伤害</v>
+          </cell>
+          <cell r="F10">
+            <v>3</v>
+          </cell>
+          <cell r="G10">
+            <v>50</v>
+          </cell>
+          <cell r="H10">
+            <v>1</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>1</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>0.34</v>
+          </cell>
+          <cell r="M10">
+            <v>4</v>
+          </cell>
+          <cell r="N10">
+            <v>300</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2397,140 +3089,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442DE5EE-AD1D-4212-A8E4-5731763B61A2}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:K42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -2540,1581 +3249,1634 @@
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="H6" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
         <v>9</v>
       </c>
-      <c r="H6" s="17">
+      <c r="K6" s="17">
         <v>0.5</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="H7" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
         <v>9</v>
       </c>
-      <c r="H7" s="17">
+      <c r="K7" s="17">
         <v>0.5</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="M7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M7" s="5">
+      <c r="P7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="H8" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
         <v>9</v>
       </c>
-      <c r="H8" s="17">
+      <c r="K8" s="17">
         <v>0.5</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M8" s="5">
+      <c r="P8" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="H9" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="17">
         <v>9</v>
       </c>
-      <c r="H9" s="17">
+      <c r="K9" s="17">
         <v>0.5</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="H10" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
         <v>9</v>
       </c>
-      <c r="H10" s="17">
+      <c r="K10" s="17">
         <v>0.5</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="M10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="5">
+      <c r="P10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="H11" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
         <v>9</v>
       </c>
-      <c r="H11" s="17">
+      <c r="K11" s="17">
         <v>0.5</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="L11" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="M11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="5">
+      <c r="P11" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="H12" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12" s="17">
         <v>9</v>
       </c>
-      <c r="H12" s="17">
+      <c r="K12" s="17">
         <v>0.3</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="17">
+      <c r="H13" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
         <v>9</v>
       </c>
-      <c r="H13" s="17">
+      <c r="K13" s="17">
         <v>0.3</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="L13" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="O13" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="M13" s="5">
+      <c r="P13" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17">
+      <c r="H14" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
         <v>9</v>
       </c>
-      <c r="H14" s="17">
+      <c r="K14" s="17">
         <v>0.3</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="L14" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="M14" s="5">
+      <c r="P14" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
+      <c r="H15" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
         <v>9</v>
       </c>
-      <c r="H15" s="17">
+      <c r="K15" s="17">
         <v>0.3</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="L15" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="M15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="17">
-        <v>1</v>
-      </c>
-      <c r="G16" s="17">
+      <c r="H16" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
         <v>9</v>
       </c>
-      <c r="H16" s="17">
+      <c r="K16" s="17">
         <v>0.3</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="L16" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="M16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="O16" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="M16" s="5">
+      <c r="P16" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F17" s="17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17">
+      <c r="H17" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
         <v>9</v>
       </c>
-      <c r="H17" s="17">
+      <c r="K17" s="17">
         <v>0.3</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="L17" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="M17" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="O17" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="M17" s="5">
+      <c r="P17" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17">
+      <c r="H18" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
         <v>9</v>
       </c>
-      <c r="H18" s="17">
+      <c r="K18" s="17">
         <v>2</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="M18" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="O18" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="G19" s="17">
+      <c r="H19" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
         <v>9</v>
       </c>
-      <c r="H19" s="17">
+      <c r="K19" s="17">
         <v>2</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="L19" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="M19" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="M19" s="5">
+      <c r="P19" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F20" s="17">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17">
+      <c r="H20" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
         <v>9</v>
       </c>
-      <c r="H20" s="17">
+      <c r="K20" s="17">
         <v>2</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="L20" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="M20" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="O20" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="M20" s="5">
+      <c r="P20" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F21" s="17">
-        <v>1</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="H21" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
         <v>7.5</v>
       </c>
-      <c r="H21" s="17">
-        <v>1</v>
-      </c>
-      <c r="I21" s="17" t="s">
+      <c r="K21" s="17">
+        <v>1</v>
+      </c>
+      <c r="L21" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="M21" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="O21" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F22" s="17">
-        <v>1</v>
-      </c>
-      <c r="G22" s="17">
+      <c r="H22" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
         <v>7.5</v>
       </c>
-      <c r="H22" s="17">
-        <v>1</v>
-      </c>
-      <c r="I22" s="17" t="s">
+      <c r="K22" s="17">
+        <v>1</v>
+      </c>
+      <c r="L22" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="M22" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="O22" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="M22" s="5">
+      <c r="P22" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F23" s="17">
-        <v>1</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="H23" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="J23" s="17">
         <v>7.5</v>
       </c>
-      <c r="H23" s="17">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17" t="s">
+      <c r="K23" s="17">
+        <v>1</v>
+      </c>
+      <c r="L23" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="M23" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="O23" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="M23" s="5">
+      <c r="P23" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F24" s="17">
-        <v>1</v>
-      </c>
-      <c r="G24" s="17">
+      <c r="H24" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17">
         <v>7.5</v>
       </c>
-      <c r="H24" s="17">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17" t="s">
+      <c r="K24" s="17">
+        <v>1</v>
+      </c>
+      <c r="L24" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="M24" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="O24" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="E25" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F25" s="17">
-        <v>1</v>
-      </c>
-      <c r="G25" s="17">
+      <c r="H25" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+      <c r="J25" s="17">
         <v>7.5</v>
       </c>
-      <c r="H25" s="17">
-        <v>1</v>
-      </c>
-      <c r="I25" s="17" t="s">
+      <c r="K25" s="17">
+        <v>1</v>
+      </c>
+      <c r="L25" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="M25" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="O25" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M25" s="5">
+      <c r="P25" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="17">
-        <v>1</v>
-      </c>
-      <c r="G26" s="17">
+      <c r="H26" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
         <v>7.5</v>
       </c>
-      <c r="H26" s="17">
-        <v>1</v>
-      </c>
-      <c r="I26" s="17" t="s">
+      <c r="K26" s="17">
+        <v>1</v>
+      </c>
+      <c r="L26" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="M26" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="N26" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="O26" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M26" s="5">
+      <c r="P26" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F27" s="17">
-        <v>1</v>
-      </c>
-      <c r="G27" s="17">
+      <c r="H27" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17">
         <v>5</v>
       </c>
-      <c r="H27" s="17">
-        <v>1</v>
-      </c>
-      <c r="I27" s="17" t="s">
+      <c r="K27" s="17">
+        <v>1</v>
+      </c>
+      <c r="L27" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="N27" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="O27" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F28" s="17">
-        <v>1</v>
-      </c>
-      <c r="G28" s="17">
+      <c r="H28" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17">
         <v>6.25</v>
       </c>
-      <c r="H28" s="17">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17" t="s">
+      <c r="K28" s="17">
+        <v>1</v>
+      </c>
+      <c r="L28" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="N28" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="O28" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M28" s="5">
+      <c r="P28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F29" s="17">
-        <v>1</v>
-      </c>
-      <c r="G29" s="17">
+      <c r="H29" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
         <v>7.5</v>
       </c>
-      <c r="H29" s="17">
-        <v>1</v>
-      </c>
-      <c r="I29" s="17" t="s">
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
+      <c r="L29" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="N29" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="O29" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M29" s="5">
+      <c r="P29" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="E30" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F30" s="17">
-        <v>1</v>
-      </c>
-      <c r="G30" s="17">
+      <c r="H30" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I30" s="17">
+        <v>1</v>
+      </c>
+      <c r="J30" s="17">
         <v>9</v>
       </c>
-      <c r="H30" s="17">
-        <v>1</v>
-      </c>
-      <c r="I30" s="17" t="s">
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
+      <c r="L30" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="M30" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="O30" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F31" s="17">
-        <v>1</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="H31" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I31" s="17">
+        <v>1</v>
+      </c>
+      <c r="J31" s="17">
         <v>9</v>
       </c>
-      <c r="H31" s="17">
-        <v>1</v>
-      </c>
-      <c r="I31" s="17" t="s">
+      <c r="K31" s="17">
+        <v>1</v>
+      </c>
+      <c r="L31" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="M31" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="N31" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="O31" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M31" s="5">
+      <c r="P31" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F32" s="17">
-        <v>1</v>
-      </c>
-      <c r="G32" s="17">
+      <c r="H32" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1</v>
+      </c>
+      <c r="J32" s="17">
         <v>9</v>
       </c>
-      <c r="H32" s="17">
-        <v>1</v>
-      </c>
-      <c r="I32" s="17" t="s">
+      <c r="K32" s="17">
+        <v>1</v>
+      </c>
+      <c r="L32" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="M32" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="N32" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="O32" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M32" s="5">
+      <c r="P32" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="E33" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F33" s="17">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17">
+      <c r="H33" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I33" s="17">
+        <v>1</v>
+      </c>
+      <c r="J33" s="17">
         <v>7.5</v>
       </c>
-      <c r="H33" s="17">
-        <v>1</v>
-      </c>
-      <c r="I33" s="17" t="s">
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
+      <c r="L33" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="M33" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="N33" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="O33" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="M33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F34" s="17">
-        <v>1</v>
-      </c>
-      <c r="G34" s="17">
+      <c r="H34" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I34" s="17">
+        <v>1</v>
+      </c>
+      <c r="J34" s="17">
         <v>7.5</v>
       </c>
-      <c r="H34" s="17">
-        <v>1</v>
-      </c>
-      <c r="I34" s="17" t="s">
+      <c r="K34" s="17">
+        <v>1</v>
+      </c>
+      <c r="L34" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="M34" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="N34" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="O34" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="M34" s="5">
+      <c r="P34" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="E35" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F35" s="17">
-        <v>1</v>
-      </c>
-      <c r="G35" s="17">
+      <c r="H35" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+      <c r="J35" s="17">
         <v>7.5</v>
       </c>
-      <c r="H35" s="17">
-        <v>1</v>
-      </c>
-      <c r="I35" s="17" t="s">
+      <c r="K35" s="17">
+        <v>1</v>
+      </c>
+      <c r="L35" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="M35" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="N35" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="O35" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="M35" s="5">
+      <c r="P35" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F36" s="17">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17">
+      <c r="H36" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I36" s="17">
+        <v>1</v>
+      </c>
+      <c r="J36" s="17">
         <v>7.5</v>
       </c>
-      <c r="H36" s="17">
-        <v>1</v>
-      </c>
-      <c r="I36" s="17" t="s">
+      <c r="K36" s="17">
+        <v>1</v>
+      </c>
+      <c r="L36" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="M36" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="N36" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="O36" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="M36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F37" s="17">
-        <v>1</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="H37" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I37" s="17">
+        <v>1</v>
+      </c>
+      <c r="J37" s="17">
         <v>7.5</v>
       </c>
-      <c r="H37" s="17">
-        <v>1</v>
-      </c>
-      <c r="I37" s="17" t="s">
+      <c r="K37" s="17">
+        <v>1</v>
+      </c>
+      <c r="L37" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="M37" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="N37" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="O37" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="M37" s="5">
+      <c r="P37" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="E38" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F38" s="17">
-        <v>1</v>
-      </c>
-      <c r="G38" s="17">
+      <c r="H38" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17">
         <v>7.5</v>
       </c>
-      <c r="H38" s="17">
-        <v>1</v>
-      </c>
-      <c r="I38" s="17" t="s">
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+      <c r="L38" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="M38" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="N38" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="O38" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="M38" s="5">
+      <c r="P38" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="19" t="s">
         <v>303</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F39" s="17">
-        <v>1</v>
-      </c>
-      <c r="G39" s="23">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1</v>
+      </c>
+      <c r="J39" s="23">
         <v>9</v>
       </c>
-      <c r="H39" s="19">
+      <c r="K39" s="19">
         <v>2</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="L39" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="M39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="N39" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
         <v>304</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F40" s="17">
-        <v>1</v>
-      </c>
-      <c r="G40" s="23">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
+      <c r="J40" s="23">
         <v>9</v>
       </c>
-      <c r="H40" s="19">
+      <c r="K40" s="19">
         <v>2</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="L40" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="M40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="N40" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="19" t="s">
         <v>305</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F41" s="17">
-        <v>1</v>
-      </c>
-      <c r="G41" s="23">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I41" s="17">
+        <v>1</v>
+      </c>
+      <c r="J41" s="23">
         <v>9</v>
       </c>
-      <c r="H41" s="17">
+      <c r="K41" s="17">
         <v>2</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="L41" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="M41" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="N41" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="19" t="s">
         <v>262</v>
       </c>
       <c r="C42" s="22"/>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F42" s="17">
-        <v>1</v>
-      </c>
-      <c r="G42" s="23">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1</v>
+      </c>
+      <c r="J42" s="23">
         <v>9</v>
       </c>
-      <c r="H42" s="19">
+      <c r="K42" s="19">
         <v>2</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="L42" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="M42" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="N42" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
         <v>263</v>
       </c>
       <c r="C43" s="22"/>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F43" s="17">
-        <v>1</v>
-      </c>
-      <c r="G43" s="23">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I43" s="17">
+        <v>1</v>
+      </c>
+      <c r="J43" s="23">
         <v>9</v>
       </c>
-      <c r="H43" s="19">
+      <c r="K43" s="19">
         <v>2</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="L43" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="M43" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="K43" s="17" t="s">
+      <c r="N43" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
         <v>264</v>
       </c>
       <c r="C44" s="22"/>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F44" s="17">
-        <v>1</v>
-      </c>
-      <c r="G44" s="23">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1</v>
+      </c>
+      <c r="J44" s="23">
         <v>9</v>
       </c>
-      <c r="H44" s="19">
+      <c r="K44" s="19">
         <v>2</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="L44" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="M44" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="N44" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="19" t="s">
         <v>286</v>
       </c>
       <c r="C45" s="22"/>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F45" s="17">
-        <v>1</v>
-      </c>
-      <c r="G45" s="23">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I45" s="17">
+        <v>1</v>
+      </c>
+      <c r="J45" s="23">
         <v>7.5</v>
       </c>
-      <c r="H45" s="19">
+      <c r="K45" s="19">
         <v>2</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="L45" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="M45" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="19" t="s">
         <v>287</v>
       </c>
       <c r="C46" s="22"/>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F46" s="17">
-        <v>1</v>
-      </c>
-      <c r="G46" s="23">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I46" s="17">
+        <v>1</v>
+      </c>
+      <c r="J46" s="23">
         <v>7.5</v>
       </c>
-      <c r="H46" s="19">
+      <c r="K46" s="19">
         <v>2</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="L46" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="M46" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="19" t="s">
         <v>288</v>
       </c>
       <c r="C47" s="22"/>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F47" s="17">
-        <v>1</v>
-      </c>
-      <c r="G47" s="23">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I47" s="17">
+        <v>1</v>
+      </c>
+      <c r="J47" s="23">
         <v>9</v>
       </c>
-      <c r="H47" s="19">
+      <c r="K47" s="19">
         <v>2</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="L47" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="M47" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="19" t="s">
         <v>408</v>
       </c>
       <c r="C48" s="22"/>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F48" s="17">
-        <v>1</v>
-      </c>
-      <c r="G48" s="23">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1</v>
+      </c>
+      <c r="J48" s="23">
         <v>7.5</v>
       </c>
-      <c r="H48" s="19">
+      <c r="K48" s="19">
         <v>2</v>
       </c>
-      <c r="I48" s="17" t="s">
+      <c r="L48" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="M48" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="19" t="s">
         <v>411</v>
       </c>
       <c r="C49" s="22"/>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F49" s="17">
-        <v>1</v>
-      </c>
-      <c r="G49" s="23">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I49" s="17">
+        <v>1</v>
+      </c>
+      <c r="J49" s="23">
         <v>7.5</v>
       </c>
-      <c r="H49" s="19">
+      <c r="K49" s="19">
         <v>2</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="L49" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="J49" s="17" t="s">
+      <c r="M49" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="2:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="19" t="s">
         <v>414</v>
       </c>
       <c r="C50" s="22"/>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F50" s="17">
-        <v>1</v>
-      </c>
-      <c r="G50" s="23">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I50" s="17">
+        <v>1</v>
+      </c>
+      <c r="J50" s="23">
         <v>7.5</v>
       </c>
-      <c r="H50" s="19">
+      <c r="K50" s="19">
         <v>2</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="L50" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="M50" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="2:13" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
-      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="6"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4122,139 +4884,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDB5FF-BC06-4E94-B668-346010EE5615}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -4264,667 +5044,726 @@
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>483</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="18" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="N7" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="5"/>
+      <c r="N8" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="L9" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="5"/>
+      <c r="N10" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="L11" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="L12" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="L13" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="18" t="s">
+      <c r="M13" s="5"/>
+      <c r="N13" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="2">
+      <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="L14" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="5"/>
+      <c r="N14" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="2">
+      <c r="K15" s="2">
         <v>5</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="L15" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="M15" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="2">
+      <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="L16" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="2">
+      <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="L17" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="2">
+      <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="L18" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="2">
+      <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="L19" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="N19" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="2">
+      <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="L20" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="N20" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
         <v>10</v>
       </c>
-      <c r="H21" s="2">
+      <c r="K21" s="2">
         <v>5</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="M21" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="2">
+      <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="L22" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="2">
+      <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="L23" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="N23" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
         <v>10</v>
       </c>
-      <c r="H24" s="2">
+      <c r="K24" s="2">
         <v>5</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="L24" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="M24" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="19">
+      <c r="K25" s="19">
         <v>0</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="L25" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="19">
+      <c r="K26" s="19">
         <v>0</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="L26" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
         <v>5</v>
       </c>
-      <c r="H27" s="19">
+      <c r="K27" s="19">
         <v>0</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="L27" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B16:B27">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K20 K22:K27">
+  <conditionalFormatting sqref="N16:N20 N22:N27">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4933,131 +5772,152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E0CF47-3C7B-457C-BEED-9917D5A322B0}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="38.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="38.625" customWidth="1"/>
+    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="14" max="14" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -5067,366 +5927,742 @@
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f>VLOOKUP(B6,[1]技能!$A:$N,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="M6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f>VLOOKUP(B7,[1]技能!$A:$N,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="M7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <f>VLOOKUP(B8,[1]技能!$A:$N,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="M8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <f>VLOOKUP(B9,[1]技能!$A:$N,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="M9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <f>VLOOKUP(B10,[1]技能!$A:$N,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="M10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <f>VLOOKUP(B11,[1]技能!$A:$N,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="M11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <f>VLOOKUP(B12,[1]技能!$A:$N,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="M12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>535</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <f>VLOOKUP(B13,[1]技能!$A:$N,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="M13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <f>VLOOKUP(B14,[1]技能!$A:$N,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="M14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="G16" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
         <v>7.5</v>
       </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="N16" s="1"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="K18" s="17">
+        <v>1</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <v>9</v>
+      </c>
+      <c r="K19" s="17">
+        <v>1</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="M19" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
-        <v>7.5</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <v>9</v>
+      </c>
+      <c r="K20" s="17">
+        <v>1</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <v>7.5</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="G21" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <v>9</v>
+      </c>
+      <c r="K21" s="17">
+        <v>1</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="M21" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="23">
         <v>9</v>
       </c>
-      <c r="H9" s="17">
-        <v>1</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="K22" s="19">
+        <v>2</v>
+      </c>
+      <c r="L22" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="M22" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="J23" s="23">
         <v>9</v>
       </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="K23" s="19">
+        <v>2</v>
+      </c>
+      <c r="L23" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="M23" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="G24" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="23">
         <v>9</v>
       </c>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="K24" s="19">
+        <v>2</v>
+      </c>
+      <c r="L24" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="M24" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="G25" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+      <c r="J25" s="23">
         <v>9</v>
       </c>
-      <c r="H12" s="19">
+      <c r="K25" s="19">
         <v>2</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="L25" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="M25" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="23">
         <v>9</v>
       </c>
-      <c r="H13" s="19">
+      <c r="K26" s="19">
         <v>2</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="L26" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="M26" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="23">
         <v>9</v>
       </c>
-      <c r="H14" s="19">
+      <c r="K27" s="19">
         <v>2</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="L27" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="23">
-        <v>9</v>
-      </c>
-      <c r="H15" s="19">
-        <v>2</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="17">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23">
-        <v>9</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F17" s="17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23">
-        <v>9</v>
-      </c>
-      <c r="H17" s="19">
-        <v>2</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="K17" s="17"/>
+      <c r="N27" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5434,140 +6670,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9" style="19" customWidth="1"/>
-    <col min="4" max="5" width="19.77734375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="32.77734375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" style="19" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="8.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="19" customWidth="1"/>
+    <col min="3" max="4" width="9" style="19" customWidth="1"/>
+    <col min="5" max="8" width="19.75" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="19" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="19" customWidth="1"/>
+    <col min="12" max="12" width="32.75" style="19" customWidth="1"/>
+    <col min="13" max="13" width="26.875" style="19" customWidth="1"/>
+    <col min="14" max="14" width="26.75" style="19" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -5577,38 +6829,43 @@
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>244</v>
       </c>
@@ -5616,29 +6873,32 @@
         <v>23</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
         <v>10</v>
       </c>
-      <c r="H6" s="19">
+      <c r="K6" s="19">
         <v>4</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="17"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>245</v>
       </c>
@@ -5646,29 +6906,32 @@
         <v>25</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
         <v>10</v>
       </c>
-      <c r="H7" s="19">
+      <c r="K7" s="19">
         <v>8</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="M7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="17"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>246</v>
       </c>
@@ -5676,29 +6939,32 @@
         <v>27</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
         <v>10</v>
       </c>
-      <c r="H8" s="19">
+      <c r="K8" s="19">
         <v>4</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="17"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>247</v>
       </c>
@@ -5706,29 +6972,32 @@
         <v>23</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
         <v>10</v>
       </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="17"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>248</v>
       </c>
@@ -5736,29 +7005,32 @@
         <v>23</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
-        <v>1</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="K10" s="19">
+        <v>1</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="M10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="17"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>249</v>
       </c>
@@ -5766,213 +7038,237 @@
         <v>23</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
         <v>10</v>
       </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
+      <c r="L11" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="M11" s="17"/>
+      <c r="N11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>250</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
         <v>10</v>
       </c>
-      <c r="H12" s="19">
-        <v>1</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="K12" s="19">
+        <v>1</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="N12" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>251</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
         <v>10</v>
       </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
+      <c r="L13" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>252</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
         <v>10</v>
       </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="K14" s="19">
+        <v>1</v>
+      </c>
+      <c r="L14" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="17"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>253</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
         <v>10</v>
       </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17" t="s">
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="M15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="17"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>254</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="17">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
         <v>10</v>
       </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17" t="s">
+      <c r="K16" s="19">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="M16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="17"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>255</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F17" s="17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
         <v>10</v>
       </c>
-      <c r="H17" s="19">
+      <c r="K17" s="19">
         <v>0.5</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="L17" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="M17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="N17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="17"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
         <v>256</v>
       </c>
@@ -5980,1828 +7276,2006 @@
         <v>241</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
         <v>5</v>
       </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17" t="s">
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17" t="s">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>257</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F20" s="17">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="J20" s="20">
         <v>5</v>
       </c>
-      <c r="H20" s="20">
+      <c r="K20" s="20">
         <v>4</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="L20" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="N20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
         <v>258</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F21" s="17">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="J21" s="20">
         <v>5</v>
       </c>
-      <c r="H21" s="20">
+      <c r="K21" s="20">
         <v>4</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="L21" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="N21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="20" t="s">
         <v>259</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F22" s="17">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20">
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="20">
         <v>5</v>
       </c>
-      <c r="H22" s="20">
+      <c r="K22" s="20">
         <v>4</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="L22" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="N22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
         <v>260</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F23" s="17">
-        <v>1</v>
-      </c>
-      <c r="G23" s="19">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19">
         <v>10</v>
       </c>
-      <c r="H23" s="19">
+      <c r="K23" s="19">
         <v>8</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="L23" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="N23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>261</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F24" s="17">
-        <v>1</v>
-      </c>
-      <c r="G24" s="19">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="19">
         <v>10</v>
       </c>
-      <c r="H24" s="19">
+      <c r="K24" s="19">
         <v>8</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="L24" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17" t="s">
+      <c r="M24" s="17"/>
+      <c r="N24" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="19" t="s">
         <v>265</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="23">
-        <v>1</v>
-      </c>
-      <c r="G26" s="23">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I26" s="23">
+        <v>1</v>
+      </c>
+      <c r="J26" s="23">
         <v>5</v>
       </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19" t="s">
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
+      <c r="L26" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="N26" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
         <v>266</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F27" s="23">
-        <v>1</v>
-      </c>
-      <c r="G27" s="23">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I27" s="23">
+        <v>1</v>
+      </c>
+      <c r="J27" s="23">
         <v>5</v>
       </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="19" t="s">
+      <c r="K27" s="19">
+        <v>1</v>
+      </c>
+      <c r="L27" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="N27" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
         <v>267</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F28" s="23">
-        <v>1</v>
-      </c>
-      <c r="G28" s="23">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I28" s="23">
+        <v>1</v>
+      </c>
+      <c r="J28" s="23">
         <v>5</v>
       </c>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
-      <c r="I28" s="19" t="s">
+      <c r="K28" s="19">
+        <v>1</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="N28" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="19" t="s">
         <v>271</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F30" s="23">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1</v>
+      </c>
+      <c r="J30" s="23">
         <v>7.5</v>
       </c>
-      <c r="H30" s="19">
-        <v>1</v>
-      </c>
-      <c r="I30" s="19" t="s">
+      <c r="K30" s="19">
+        <v>1</v>
+      </c>
+      <c r="L30" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="M30" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>272</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F31" s="23">
-        <v>1</v>
-      </c>
-      <c r="G31" s="23">
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I31" s="23">
+        <v>1</v>
+      </c>
+      <c r="J31" s="23">
         <v>7.5</v>
       </c>
-      <c r="H31" s="19">
-        <v>1</v>
-      </c>
-      <c r="I31" s="19" t="s">
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="M31" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="19" t="s">
         <v>273</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F32" s="23">
-        <v>1</v>
-      </c>
-      <c r="G32" s="23">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I32" s="23">
+        <v>1</v>
+      </c>
+      <c r="J32" s="23">
         <v>7.5</v>
       </c>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="19" t="s">
+      <c r="K32" s="19">
+        <v>1</v>
+      </c>
+      <c r="L32" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="M32" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
         <v>274</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F33" s="23">
-        <v>1</v>
-      </c>
-      <c r="G33" s="23">
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I33" s="23">
+        <v>1</v>
+      </c>
+      <c r="J33" s="23">
         <v>5</v>
       </c>
-      <c r="H33" s="19">
-        <v>1</v>
-      </c>
-      <c r="I33" s="19" t="s">
+      <c r="K33" s="19">
+        <v>1</v>
+      </c>
+      <c r="L33" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="N33" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="s">
         <v>275</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F34" s="23">
-        <v>1</v>
-      </c>
-      <c r="G34" s="23">
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I34" s="23">
+        <v>1</v>
+      </c>
+      <c r="J34" s="23">
         <v>5</v>
       </c>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
-      <c r="I34" s="19" t="s">
+      <c r="K34" s="19">
+        <v>1</v>
+      </c>
+      <c r="L34" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="N34" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="s">
         <v>276</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F35" s="23">
-        <v>1</v>
-      </c>
-      <c r="G35" s="23">
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I35" s="23">
+        <v>1</v>
+      </c>
+      <c r="J35" s="23">
         <v>5</v>
       </c>
-      <c r="H35" s="19">
-        <v>1</v>
-      </c>
-      <c r="I35" s="19" t="s">
+      <c r="K35" s="19">
+        <v>1</v>
+      </c>
+      <c r="L35" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="N35" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
         <v>277</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F36" s="23">
-        <v>1</v>
-      </c>
-      <c r="G36" s="23">
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I36" s="23">
+        <v>1</v>
+      </c>
+      <c r="J36" s="23">
         <v>7.5</v>
       </c>
-      <c r="H36" s="19">
+      <c r="K36" s="19">
         <v>0.5</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="L36" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="M36" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
         <v>278</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F37" s="23">
-        <v>1</v>
-      </c>
-      <c r="G37" s="23">
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I37" s="23">
+        <v>1</v>
+      </c>
+      <c r="J37" s="23">
         <v>7.5</v>
       </c>
-      <c r="H37" s="19">
+      <c r="K37" s="19">
         <v>0.5</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="L37" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="M37" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="19" t="s">
         <v>279</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F38" s="23">
-        <v>1</v>
-      </c>
-      <c r="G38" s="23">
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I38" s="23">
+        <v>1</v>
+      </c>
+      <c r="J38" s="23">
         <v>7.5</v>
       </c>
-      <c r="H38" s="19">
+      <c r="K38" s="19">
         <v>0.5</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="L38" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="M38" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="19" t="s">
         <v>280</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F39" s="23">
-        <v>1</v>
-      </c>
-      <c r="G39" s="23">
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I39" s="23">
+        <v>1</v>
+      </c>
+      <c r="J39" s="23">
         <v>7.5</v>
       </c>
-      <c r="H39" s="19">
+      <c r="K39" s="19">
         <v>3</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="L39" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="M39" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
         <v>281</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F40" s="23">
-        <v>1</v>
-      </c>
-      <c r="G40" s="23">
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I40" s="23">
+        <v>1</v>
+      </c>
+      <c r="J40" s="23">
         <v>7.5</v>
       </c>
-      <c r="H40" s="19">
+      <c r="K40" s="19">
         <v>3</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="L40" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="M40" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="19" t="s">
         <v>282</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F41" s="23">
-        <v>1</v>
-      </c>
-      <c r="G41" s="23">
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I41" s="23">
+        <v>1</v>
+      </c>
+      <c r="J41" s="23">
         <v>7.5</v>
       </c>
-      <c r="H41" s="19">
+      <c r="K41" s="19">
         <v>3</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="L41" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="M41" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="19" t="s">
         <v>283</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F42" s="23">
-        <v>1</v>
-      </c>
-      <c r="G42" s="23">
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I42" s="23">
+        <v>1</v>
+      </c>
+      <c r="J42" s="23">
         <v>7.5</v>
       </c>
-      <c r="H42" s="19">
+      <c r="K42" s="19">
         <v>0.5</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="L42" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="M42" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
         <v>284</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F43" s="23">
-        <v>1</v>
-      </c>
-      <c r="G43" s="23">
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I43" s="23">
+        <v>1</v>
+      </c>
+      <c r="J43" s="23">
         <v>7.5</v>
       </c>
-      <c r="H43" s="19">
+      <c r="K43" s="19">
         <v>0.5</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="L43" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="M43" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
         <v>285</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F44" s="23">
-        <v>1</v>
-      </c>
-      <c r="G44" s="23">
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I44" s="23">
+        <v>1</v>
+      </c>
+      <c r="J44" s="23">
         <v>7.5</v>
       </c>
-      <c r="H44" s="19">
+      <c r="K44" s="19">
         <v>0.5</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="L44" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="M44" s="19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="19" t="s">
         <v>289</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F45" s="23">
-        <v>1</v>
-      </c>
-      <c r="G45" s="23">
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I45" s="23">
+        <v>1</v>
+      </c>
+      <c r="J45" s="23">
         <v>7.5</v>
       </c>
-      <c r="H45" s="19">
-        <v>1</v>
-      </c>
-      <c r="I45" s="19" t="s">
+      <c r="K45" s="19">
+        <v>1</v>
+      </c>
+      <c r="L45" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="M45" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="19" t="s">
         <v>290</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F46" s="23">
-        <v>1</v>
-      </c>
-      <c r="G46" s="23">
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I46" s="23">
+        <v>1</v>
+      </c>
+      <c r="J46" s="23">
         <v>7.5</v>
       </c>
-      <c r="H46" s="19">
-        <v>1</v>
-      </c>
-      <c r="I46" s="19" t="s">
+      <c r="K46" s="19">
+        <v>1</v>
+      </c>
+      <c r="L46" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="M46" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="19" t="s">
         <v>291</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F47" s="23">
-        <v>1</v>
-      </c>
-      <c r="G47" s="23">
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I47" s="23">
+        <v>1</v>
+      </c>
+      <c r="J47" s="23">
         <v>7.5</v>
       </c>
-      <c r="H47" s="19">
-        <v>1</v>
-      </c>
-      <c r="I47" s="19" t="s">
+      <c r="K47" s="19">
+        <v>1</v>
+      </c>
+      <c r="L47" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="M47" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="19" t="s">
         <v>292</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F48" s="23">
-        <v>1</v>
-      </c>
-      <c r="G48" s="23">
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I48" s="23">
+        <v>1</v>
+      </c>
+      <c r="J48" s="23">
         <v>5</v>
       </c>
-      <c r="H48" s="19">
+      <c r="K48" s="19">
         <v>3</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="L48" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="N48" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="19" t="s">
         <v>293</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F49" s="23">
-        <v>1</v>
-      </c>
-      <c r="G49" s="23">
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I49" s="23">
+        <v>1</v>
+      </c>
+      <c r="J49" s="23">
         <v>5</v>
       </c>
-      <c r="H49" s="19">
+      <c r="K49" s="19">
         <v>3</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="L49" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K49" s="19" t="s">
+      <c r="N49" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="19" t="s">
         <v>294</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F50" s="23">
-        <v>1</v>
-      </c>
-      <c r="G50" s="23">
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I50" s="23">
+        <v>1</v>
+      </c>
+      <c r="J50" s="23">
         <v>5</v>
       </c>
-      <c r="H50" s="19">
+      <c r="K50" s="19">
         <v>3</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="L50" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="N50" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="19" t="s">
         <v>295</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F51" s="23">
-        <v>1</v>
-      </c>
-      <c r="G51" s="23">
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I51" s="23">
+        <v>1</v>
+      </c>
+      <c r="J51" s="23">
         <v>5</v>
       </c>
-      <c r="H51" s="19">
+      <c r="K51" s="19">
         <v>3</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="L51" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="N51" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="19" t="s">
         <v>296</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F52" s="23">
-        <v>1</v>
-      </c>
-      <c r="G52" s="23">
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I52" s="23">
+        <v>1</v>
+      </c>
+      <c r="J52" s="23">
         <v>5</v>
       </c>
-      <c r="H52" s="19">
+      <c r="K52" s="19">
         <v>2</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="L52" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K52" s="19" t="s">
+      <c r="N52" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="19" t="s">
         <v>297</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F53" s="23">
-        <v>1</v>
-      </c>
-      <c r="G53" s="23">
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I53" s="23">
+        <v>1</v>
+      </c>
+      <c r="J53" s="23">
         <v>5</v>
       </c>
-      <c r="H53" s="19">
-        <v>1</v>
-      </c>
-      <c r="I53" s="19" t="s">
+      <c r="K53" s="19">
+        <v>1</v>
+      </c>
+      <c r="L53" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="K53" s="19" t="s">
+      <c r="N53" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="19" t="s">
         <v>300</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F54" s="23">
-        <v>1</v>
-      </c>
-      <c r="G54" s="23">
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I54" s="23">
+        <v>1</v>
+      </c>
+      <c r="J54" s="23">
         <v>7.5</v>
       </c>
-      <c r="H54" s="19">
+      <c r="K54" s="19">
         <v>3</v>
       </c>
-      <c r="I54" s="19" t="s">
+      <c r="L54" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J54" s="19" t="s">
+      <c r="M54" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="19" t="s">
         <v>301</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F55" s="23">
-        <v>1</v>
-      </c>
-      <c r="G55" s="23">
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I55" s="23">
+        <v>1</v>
+      </c>
+      <c r="J55" s="23">
         <v>7.5</v>
       </c>
-      <c r="H55" s="19">
+      <c r="K55" s="19">
         <v>3</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="L55" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="M55" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="19" t="s">
         <v>302</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F56" s="23">
-        <v>1</v>
-      </c>
-      <c r="G56" s="23">
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I56" s="23">
+        <v>1</v>
+      </c>
+      <c r="J56" s="23">
         <v>7.5</v>
       </c>
-      <c r="H56" s="19">
+      <c r="K56" s="19">
         <v>3</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="L56" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="M56" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="19" t="s">
         <v>306</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F57" s="23">
-        <v>1</v>
-      </c>
-      <c r="G57" s="23">
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I57" s="23">
+        <v>1</v>
+      </c>
+      <c r="J57" s="23">
         <v>7.5</v>
       </c>
-      <c r="H57" s="19">
-        <v>1</v>
-      </c>
-      <c r="I57" s="19" t="s">
+      <c r="K57" s="19">
+        <v>1</v>
+      </c>
+      <c r="L57" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J57" s="19" t="s">
+      <c r="M57" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58" s="19" t="s">
         <v>307</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F58" s="23">
-        <v>1</v>
-      </c>
-      <c r="G58" s="23">
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I58" s="23">
+        <v>1</v>
+      </c>
+      <c r="J58" s="23">
         <v>7.5</v>
       </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="19" t="s">
+      <c r="K58" s="19">
+        <v>1</v>
+      </c>
+      <c r="L58" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="M58" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="19" t="s">
         <v>308</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F59" s="23">
-        <v>1</v>
-      </c>
-      <c r="G59" s="23">
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I59" s="23">
+        <v>1</v>
+      </c>
+      <c r="J59" s="23">
         <v>7.5</v>
       </c>
-      <c r="H59" s="19">
-        <v>1</v>
-      </c>
-      <c r="I59" s="19" t="s">
+      <c r="K59" s="19">
+        <v>1</v>
+      </c>
+      <c r="L59" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="J59" s="19" t="s">
+      <c r="M59" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="19" t="s">
         <v>309</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="17"/>
+      <c r="E61" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F61" s="17">
-        <v>1</v>
-      </c>
-      <c r="G61" s="19">
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I61" s="17">
+        <v>1</v>
+      </c>
+      <c r="J61" s="19">
         <v>10</v>
       </c>
-      <c r="H61" s="19">
+      <c r="K61" s="19">
         <v>0.5</v>
       </c>
-      <c r="I61" s="17" t="s">
+      <c r="L61" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J61" s="19" t="s">
+      <c r="M61" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B62" s="19" t="s">
         <v>310</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="17"/>
+      <c r="E62" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F62" s="17">
-        <v>1</v>
-      </c>
-      <c r="G62" s="19">
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I62" s="17">
+        <v>1</v>
+      </c>
+      <c r="J62" s="19">
         <v>10</v>
       </c>
-      <c r="H62" s="19">
+      <c r="K62" s="19">
         <v>0.3</v>
       </c>
-      <c r="I62" s="17" t="s">
+      <c r="L62" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J62" s="19" t="s">
+      <c r="M62" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" s="19" t="s">
         <v>311</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="17"/>
+      <c r="E63" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E63" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F63" s="17">
-        <v>1</v>
-      </c>
-      <c r="G63" s="19">
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I63" s="17">
+        <v>1</v>
+      </c>
+      <c r="J63" s="19">
         <v>10</v>
       </c>
-      <c r="H63" s="19">
+      <c r="K63" s="19">
         <v>0.2</v>
       </c>
-      <c r="I63" s="17" t="s">
+      <c r="L63" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="M63" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="19" t="s">
         <v>312</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="E64" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F64" s="17">
-        <v>1</v>
-      </c>
-      <c r="G64" s="24">
+      <c r="H64" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I64" s="17">
+        <v>1</v>
+      </c>
+      <c r="J64" s="24">
         <v>10</v>
       </c>
-      <c r="H64" s="19">
-        <v>1</v>
-      </c>
-      <c r="I64" s="17" t="s">
+      <c r="K64" s="19">
+        <v>1</v>
+      </c>
+      <c r="L64" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="M64" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="19" t="s">
         <v>313</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="E65" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F65" s="17">
-        <v>1</v>
-      </c>
-      <c r="G65" s="24">
+      <c r="H65" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I65" s="17">
+        <v>1</v>
+      </c>
+      <c r="J65" s="24">
         <v>10</v>
       </c>
-      <c r="H65" s="19">
+      <c r="K65" s="19">
         <v>0.5</v>
       </c>
-      <c r="I65" s="17" t="s">
+      <c r="L65" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="M65" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="19" t="s">
         <v>314</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="E66" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F66" s="17">
-        <v>1</v>
-      </c>
-      <c r="G66" s="24">
+      <c r="H66" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I66" s="17">
+        <v>1</v>
+      </c>
+      <c r="J66" s="24">
         <v>10</v>
       </c>
-      <c r="H66" s="19">
+      <c r="K66" s="19">
         <v>0.3</v>
       </c>
-      <c r="I66" s="17" t="s">
+      <c r="L66" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J66" s="24" t="s">
+      <c r="M66" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="19" t="s">
         <v>315</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="17"/>
+      <c r="E67" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F67" s="17">
-        <v>1</v>
-      </c>
-      <c r="G67" s="19">
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I67" s="17">
+        <v>1</v>
+      </c>
+      <c r="J67" s="19">
         <v>15</v>
       </c>
-      <c r="H67" s="19">
-        <v>1</v>
-      </c>
-      <c r="I67" s="17" t="s">
+      <c r="K67" s="19">
+        <v>1</v>
+      </c>
+      <c r="L67" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="J67" s="19" t="s">
+      <c r="M67" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="19" t="s">
         <v>316</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="17"/>
+      <c r="E68" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F68" s="17">
-        <v>1</v>
-      </c>
-      <c r="G68" s="19">
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I68" s="17">
+        <v>1</v>
+      </c>
+      <c r="J68" s="19">
         <v>15</v>
       </c>
-      <c r="H68" s="19">
-        <v>1</v>
-      </c>
-      <c r="I68" s="17" t="s">
+      <c r="K68" s="19">
+        <v>1</v>
+      </c>
+      <c r="L68" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="J68" s="19" t="s">
+      <c r="M68" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="19" t="s">
         <v>317</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="17"/>
+      <c r="E69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F69" s="17">
-        <v>1</v>
-      </c>
-      <c r="G69" s="19">
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I69" s="17">
+        <v>1</v>
+      </c>
+      <c r="J69" s="19">
         <v>15</v>
       </c>
-      <c r="H69" s="19">
-        <v>1</v>
-      </c>
-      <c r="I69" s="17" t="s">
+      <c r="K69" s="19">
+        <v>1</v>
+      </c>
+      <c r="L69" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="J69" s="19" t="s">
+      <c r="M69" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="19" t="s">
         <v>318</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="17"/>
+      <c r="E70" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F70" s="17">
-        <v>1</v>
-      </c>
-      <c r="G70" s="19">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I70" s="17">
+        <v>1</v>
+      </c>
+      <c r="J70" s="19">
         <v>15</v>
       </c>
-      <c r="H70" s="19">
-        <v>1</v>
-      </c>
-      <c r="I70" s="17" t="s">
+      <c r="K70" s="19">
+        <v>1</v>
+      </c>
+      <c r="L70" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J70" s="19" t="s">
+      <c r="M70" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71" s="19" t="s">
         <v>319</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="17"/>
+      <c r="E71" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E71" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F71" s="17">
-        <v>1</v>
-      </c>
-      <c r="G71" s="19">
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I71" s="17">
+        <v>1</v>
+      </c>
+      <c r="J71" s="19">
         <v>15</v>
       </c>
-      <c r="H71" s="19">
-        <v>1</v>
-      </c>
-      <c r="I71" s="17" t="s">
+      <c r="K71" s="19">
+        <v>1</v>
+      </c>
+      <c r="L71" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J71" s="17" t="s">
+      <c r="M71" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72" s="19" t="s">
         <v>320</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="E72" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F72" s="17">
-        <v>1</v>
-      </c>
-      <c r="G72" s="19">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I72" s="17">
+        <v>1</v>
+      </c>
+      <c r="J72" s="19">
         <v>10</v>
       </c>
-      <c r="H72" s="19">
+      <c r="K72" s="19">
         <v>4</v>
       </c>
-      <c r="I72" s="17" t="s">
+      <c r="L72" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="M72" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73" s="19" t="s">
         <v>321</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="E73" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F73" s="17">
-        <v>1</v>
-      </c>
-      <c r="G73" s="19">
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I73" s="17">
+        <v>1</v>
+      </c>
+      <c r="J73" s="19">
         <v>10</v>
       </c>
-      <c r="H73" s="19">
+      <c r="K73" s="19">
         <v>2</v>
       </c>
-      <c r="I73" s="17" t="s">
+      <c r="L73" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J73" s="19" t="s">
+      <c r="M73" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74" s="19" t="s">
         <v>322</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="E74" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F74" s="17">
-        <v>1</v>
-      </c>
-      <c r="G74" s="19">
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I74" s="17">
+        <v>1</v>
+      </c>
+      <c r="J74" s="19">
         <v>10</v>
       </c>
-      <c r="H74" s="19">
+      <c r="K74" s="19">
         <v>1.6</v>
       </c>
-      <c r="I74" s="17" t="s">
+      <c r="L74" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J74" s="19" t="s">
+      <c r="M74" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="E75" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F75" s="17">
-        <v>1</v>
-      </c>
-      <c r="G75" s="19">
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I75" s="17">
+        <v>1</v>
+      </c>
+      <c r="J75" s="19">
         <v>10</v>
       </c>
-      <c r="H75" s="19">
+      <c r="K75" s="19">
         <v>1.5</v>
       </c>
-      <c r="I75" s="17" t="s">
+      <c r="L75" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J75" s="19" t="s">
+      <c r="M75" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="19" t="s">
         <v>324</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="E76" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F76" s="17">
-        <v>1</v>
-      </c>
-      <c r="G76" s="19">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I76" s="17">
+        <v>1</v>
+      </c>
+      <c r="J76" s="19">
         <v>10</v>
       </c>
-      <c r="H76" s="19">
+      <c r="K76" s="19">
         <v>0.9</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="L76" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="M76" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77" s="19" t="s">
         <v>325</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="E77" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F77" s="17">
-        <v>1</v>
-      </c>
-      <c r="G77" s="19">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I77" s="17">
+        <v>1</v>
+      </c>
+      <c r="J77" s="19">
         <v>10</v>
       </c>
-      <c r="H77" s="19">
+      <c r="K77" s="19">
         <v>0.6</v>
       </c>
-      <c r="I77" s="17" t="s">
+      <c r="L77" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J77" s="19" t="s">
+      <c r="M77" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="19" t="s">
         <v>326</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="E78" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E78" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F78" s="17">
-        <v>1</v>
-      </c>
-      <c r="G78" s="19">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I78" s="17">
+        <v>1</v>
+      </c>
+      <c r="J78" s="19">
         <v>10</v>
       </c>
-      <c r="H78" s="19">
+      <c r="K78" s="19">
         <v>2</v>
       </c>
-      <c r="I78" s="17" t="s">
+      <c r="L78" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J78" s="19" t="s">
+      <c r="M78" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="19" t="s">
         <v>327</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="E79" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E79" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F79" s="17">
-        <v>1</v>
-      </c>
-      <c r="G79" s="19">
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I79" s="17">
+        <v>1</v>
+      </c>
+      <c r="J79" s="19">
         <v>10</v>
       </c>
-      <c r="H79" s="19">
-        <v>1</v>
-      </c>
-      <c r="I79" s="17" t="s">
+      <c r="K79" s="19">
+        <v>1</v>
+      </c>
+      <c r="L79" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J79" s="19" t="s">
+      <c r="M79" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" s="19" t="s">
         <v>328</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="E80" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F80" s="17">
-        <v>1</v>
-      </c>
-      <c r="G80" s="19">
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I80" s="17">
+        <v>1</v>
+      </c>
+      <c r="J80" s="19">
         <v>10</v>
       </c>
-      <c r="H80" s="19">
+      <c r="K80" s="19">
         <v>0.5</v>
       </c>
-      <c r="I80" s="17" t="s">
+      <c r="L80" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J80" s="19" t="s">
+      <c r="M80" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="19" t="s">
         <v>329</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="E81" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F81" s="17">
-        <v>1</v>
-      </c>
-      <c r="G81" s="19">
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I81" s="17">
+        <v>1</v>
+      </c>
+      <c r="J81" s="19">
         <v>5</v>
       </c>
-      <c r="H81" s="19">
+      <c r="K81" s="19">
         <v>0.5</v>
       </c>
-      <c r="I81" s="17" t="s">
+      <c r="L81" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="K81" s="17" t="s">
+      <c r="N81" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="19" t="s">
         <v>330</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="E82" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E82" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F82" s="17">
-        <v>1</v>
-      </c>
-      <c r="G82" s="19">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I82" s="17">
+        <v>1</v>
+      </c>
+      <c r="J82" s="19">
         <v>5</v>
       </c>
-      <c r="H82" s="19">
+      <c r="K82" s="19">
         <v>0.5</v>
       </c>
-      <c r="I82" s="17" t="s">
+      <c r="L82" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="K82" s="17" t="s">
+      <c r="N82" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="19" t="s">
         <v>331</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="E83" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E83" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="F83" s="17">
-        <v>1</v>
-      </c>
-      <c r="G83" s="19">
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I83" s="17">
+        <v>1</v>
+      </c>
+      <c r="J83" s="19">
         <v>5</v>
       </c>
-      <c r="H83" s="19">
+      <c r="K83" s="19">
         <v>0.5</v>
       </c>
-      <c r="I83" s="17" t="s">
+      <c r="L83" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="K83" s="17" t="s">
+      <c r="N83" s="17" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B867FF86-DF00-4F06-A0F8-11803ADE52B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E854136-B56E-441C-97C7-9D9E513027F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="2" r:id="rId1"/>
@@ -2613,7 +2613,10 @@
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
+      <sheetName val="商业化"/>
+      <sheetName val="音乐音效"/>
       <sheetName val="参考"/>
+      <sheetName val="工具"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2698,13 +2701,13 @@
             <v>0</v>
           </cell>
           <cell r="L2">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="M2" t="str">
             <v>UnLockDefault</v>
           </cell>
           <cell r="N2">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="3">
@@ -2748,7 +2751,7 @@
             <v>UnLockByPVE</v>
           </cell>
           <cell r="N3">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="4">
@@ -2792,7 +2795,7 @@
             <v>UnLockByPVE</v>
           </cell>
           <cell r="N4">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="5">
@@ -2833,10 +2836,10 @@
             <v>5</v>
           </cell>
           <cell r="M5" t="str">
-            <v>UnLockByDiamond;500</v>
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N5">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="6">
@@ -2877,10 +2880,10 @@
             <v>1</v>
           </cell>
           <cell r="M6" t="str">
-            <v>UnLockByDiamond;2000</v>
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N6">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="7">
@@ -2921,10 +2924,10 @@
             <v>0.34</v>
           </cell>
           <cell r="M7" t="str">
-            <v>UnLockByDiamond;5000</v>
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N7">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="8">
@@ -2968,7 +2971,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N8">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="9">
@@ -3012,7 +3015,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N9">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="10">
@@ -3056,7 +3059,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N10">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
       </sheetData>
@@ -3064,6 +3067,9 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3329,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442DE5EE-AD1D-4212-A8E4-5731763B61A2}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5004,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H50" s="19">
         <v>2</v>
@@ -5044,8 +5050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDB5FF-BC06-4E94-B668-346010EE5615}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5585,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>488</v>
@@ -6131,7 +6137,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I38" s="25" t="s">
         <v>596</v>
@@ -6160,7 +6166,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I39" s="25" t="s">
         <v>600</v>
@@ -6217,10 +6223,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I41" s="26" t="s">
         <v>607</v>
@@ -6420,6 +6426,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
